--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_13.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/90/Output_3_13.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>85875.63166514014</v>
+        <v>87903.49124689997</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>20002932.62808473</v>
+        <v>20060381.09850433</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>10509092.07651445</v>
+        <v>10565397.32237267</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>5262285.309618469</v>
+        <v>5220128.048064638</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -665,13 +667,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>356.4559350279557</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -710,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>218.7163152458132</v>
+        <v>173.6367412348446</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -722,7 +724,7 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y2" t="n">
         <v>401.2838973446586</v>
@@ -753,7 +755,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H3" t="n">
-        <v>52.84233230531351</v>
+        <v>52.84233230531348</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -786,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>80.51100496435825</v>
+        <v>80.51100496435802</v>
       </c>
       <c r="T3" t="n">
         <v>140.4611363452985</v>
@@ -814,28 +816,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C4" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F4" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>164.5944000087102</v>
+        <v>129.5983509487738</v>
       </c>
       <c r="H4" t="n">
-        <v>39.25515466184237</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S4" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>250.9224995100141</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>422.6317226868329</v>
@@ -908,10 +910,10 @@
         <v>420.8729399924937</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H5" t="n">
-        <v>294.8896947407055</v>
+        <v>291.0290594993804</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -950,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -990,7 +992,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H6" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1072,7 +1074,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I7" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,19 +1107,19 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>27.01344060555873</v>
+        <v>163.7727216043775</v>
       </c>
       <c r="Y7" t="n">
         <v>224.0793406271554</v>
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>214.024275816272</v>
       </c>
       <c r="C8" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D8" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>148.8791019344356</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1190,7 +1192,7 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W8" t="n">
         <v>392.4274362026566</v>
@@ -1288,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>187.2103167239507</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H10" t="n">
         <v>142.3583058069271</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,16 +1350,16 @@
         <v>277.3826040146988</v>
       </c>
       <c r="V10" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y10" t="n">
-        <v>224.0793406271554</v>
+        <v>200.7305813723588</v>
       </c>
     </row>
     <row r="11">
@@ -1367,22 +1369,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>124.7579643360452</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1418,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X11" t="n">
-        <v>407.6027988439302</v>
+        <v>43.81577791924623</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1531,22 +1533,22 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,16 +1581,16 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>139.4851730221162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X13" t="n">
         <v>240.1382575886529</v>
@@ -1604,19 +1606,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>145.1912374450075</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1658,7 +1660,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>140.0226407924333</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -1762,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>147.6712272704986</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U16" t="n">
         <v>277.3826040146988</v>
@@ -1825,7 +1827,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>2.249401508912511</v>
       </c>
       <c r="X16" t="n">
         <v>240.1382575886529</v>
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>415.6498806486147</v>
+        <v>294.3969271427538</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1850,7 +1852,7 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -1859,7 +1861,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1904,7 +1906,7 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>144.3470069838802</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X17" t="n">
         <v>407.6027988439302</v>
@@ -2005,19 +2007,19 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D19" t="n">
-        <v>139.4851730221162</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2053,22 +2055,22 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U19" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W19" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>224.0793406271554</v>
+        <v>108.9577095134814</v>
       </c>
     </row>
     <row r="20">
@@ -2081,22 +2083,22 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C20" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H20" t="n">
-        <v>58.67748875058555</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2135,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>180.9438682923289</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="21">
@@ -2236,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>164.546123788675</v>
@@ -2254,10 +2256,10 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H22" t="n">
-        <v>142.3583058069271</v>
+        <v>140.3772204612117</v>
       </c>
       <c r="I22" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,19 +2286,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T22" t="n">
-        <v>108.3150987014993</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V22" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -2315,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>422.6317226868329</v>
@@ -2366,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>71.94762989914921</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>16.26574649787987</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
@@ -2473,28 +2475,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D25" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,19 +2526,19 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>86.84352775070194</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V25" t="n">
         <v>278.8943527180514</v>
       </c>
       <c r="W25" t="n">
-        <v>154.8833258811976</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X25" t="n">
         <v>240.1382575886529</v>
@@ -2552,16 +2554,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F26" t="n">
         <v>0</v>
@@ -2570,7 +2572,7 @@
         <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2603,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>191.0733059571629</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>401.2838973446586</v>
+        <v>111.5422858787863</v>
       </c>
     </row>
     <row r="27">
@@ -2716,10 +2718,10 @@
         <v>170.2528374898731</v>
       </c>
       <c r="D28" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>164.546123788675</v>
+        <v>82.13022054491937</v>
       </c>
       <c r="F28" t="n">
         <v>170.1431564831852</v>
@@ -2728,7 +2730,7 @@
         <v>164.5944000087102</v>
       </c>
       <c r="H28" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,13 +2769,13 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>164.540418312084</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X28" t="n">
         <v>240.1382575886529</v>
@@ -2789,25 +2791,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>106.3192265349073</v>
       </c>
       <c r="C29" t="n">
         <v>422.6317226868329</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2852,13 +2854,13 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>264.1926406585777</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2947,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F31" t="n">
-        <v>147.1566780575632</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G31" t="n">
         <v>164.5944000087102</v>
@@ -2995,28 +2997,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S31" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>272.1038797892121</v>
+        <v>259.3395661439114</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
     <row r="32">
@@ -3026,22 +3028,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>422.6317226868329</v>
+        <v>128.6552774352945</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3086,13 +3088,13 @@
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>152.2889158926704</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -3187,25 +3189,25 @@
         <v>188.264309024945</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3235,19 +3237,19 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>68.83205621563052</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>272.1038797892121</v>
+        <v>65.7695357349571</v>
       </c>
       <c r="X34" t="n">
         <v>240.1382575886529</v>
@@ -3263,25 +3265,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>131.0768658353167</v>
       </c>
       <c r="D35" t="n">
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>235.3721011584466</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3323,13 +3325,13 @@
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
         <v>401.2838973446586</v>
@@ -3424,19 +3426,19 @@
         <v>188.264309024945</v>
       </c>
       <c r="C37" t="n">
-        <v>87.83693424611771</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3472,13 +3474,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>68.83205621563029</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V37" t="n">
         <v>278.8943527180514</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>422.6317226868329</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>205.9771940115877</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -3518,7 +3520,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>92.84570203241005</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.7163152458132</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -3563,10 +3565,10 @@
         <v>353.914520725013</v>
       </c>
       <c r="W38" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3679,7 +3681,7 @@
         <v>142.3583058069271</v>
       </c>
       <c r="I40" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>164.5404183120838</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3721,7 +3723,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>65.76953573495733</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>240.1382575886529</v>
@@ -3740,7 +3742,7 @@
         <v>415.6498806486147</v>
       </c>
       <c r="C41" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
         <v>0</v>
@@ -3749,7 +3751,7 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>55.28419620635112</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -3758,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>34.5479025439635</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3803,10 +3805,10 @@
         <v>392.4274362026566</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y41" t="n">
-        <v>401.2838973446586</v>
+        <v>119.4997960430459</v>
       </c>
     </row>
     <row r="42">
@@ -3834,7 +3836,7 @@
         <v>93.11323406457203</v>
       </c>
       <c r="H42" t="n">
-        <v>52.8423323053137</v>
+        <v>52.84233230531351</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3895,25 +3897,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H43" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3946,25 +3948,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W43" t="n">
-        <v>164.540418312084</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X43" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y43" t="n">
-        <v>224.0793406271554</v>
+        <v>148.1476088529637</v>
       </c>
     </row>
     <row r="44">
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -3983,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4031,19 +4033,19 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X44" t="n">
-        <v>322.8766161951895</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>380.884638193553</v>
       </c>
     </row>
     <row r="45">
@@ -4113,10 +4115,10 @@
         <v>182.9205141195597</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>202.9234074721264</v>
       </c>
       <c r="W45" t="n">
-        <v>29.47142800294896</v>
+        <v>194.556163395115</v>
       </c>
       <c r="X45" t="n">
         <v>161.8425727710037</v>
@@ -4132,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>141.3043135059327</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>23.1885184415375</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4186,7 +4188,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T46" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>277.3826040146988</v>
@@ -4198,10 +4200,10 @@
         <v>272.1038797892121</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>224.0793406271554</v>
       </c>
     </row>
   </sheetData>
@@ -4304,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>822.9454323412073</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C2" t="n">
-        <v>822.9454323412073</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D2" t="n">
-        <v>822.9454323412073</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E2" t="n">
-        <v>396.9684924890648</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F2" t="n">
-        <v>396.9684924890648</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I2" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J2" t="n">
         <v>399.5154512777223</v>
@@ -4334,22 +4336,22 @@
         <v>856.3013579804531</v>
       </c>
       <c r="L2" t="n">
-        <v>1313.087264683184</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M2" t="n">
-        <v>1313.087264683184</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q2" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R2" t="n">
         <v>1845.599623041337</v>
@@ -4358,22 +4360,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T2" t="n">
-        <v>1624.67405208597</v>
+        <v>1670.208975329372</v>
       </c>
       <c r="U2" t="n">
-        <v>1624.67405208597</v>
+        <v>1670.208975329372</v>
       </c>
       <c r="V2" t="n">
-        <v>1624.67405208597</v>
+        <v>1670.208975329372</v>
       </c>
       <c r="W2" t="n">
-        <v>1228.282702386317</v>
+        <v>1273.817625629719</v>
       </c>
       <c r="X2" t="n">
-        <v>1228.282702386317</v>
+        <v>862.0976267974665</v>
       </c>
       <c r="Y2" t="n">
-        <v>822.9454323412073</v>
+        <v>456.7603567523568</v>
       </c>
     </row>
     <row r="3">
@@ -4389,46 +4391,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D3" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E3" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F3" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G3" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H3" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I3" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J3" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K3" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L3" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M3" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N3" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O3" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="P3" t="n">
         <v>1306.794406253903</v>
       </c>
       <c r="Q3" t="n">
-        <v>1763.580312956634</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R3" t="n">
         <v>1845.599623041337</v>
@@ -4462,49 +4464,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>916.1799496090923</v>
+        <v>577.5924602603245</v>
       </c>
       <c r="C4" t="n">
-        <v>744.2073864880083</v>
+        <v>577.5924602603245</v>
       </c>
       <c r="D4" t="n">
-        <v>580.890613614779</v>
+        <v>577.5924602603245</v>
       </c>
       <c r="E4" t="n">
-        <v>414.6824077676325</v>
+        <v>411.384254413178</v>
       </c>
       <c r="F4" t="n">
-        <v>242.820633542193</v>
+        <v>411.384254413178</v>
       </c>
       <c r="G4" t="n">
-        <v>76.56366383642509</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H4" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I4" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J4" t="n">
-        <v>94.40332068498475</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="K4" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L4" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M4" t="n">
-        <v>1066.806038155494</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N4" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O4" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P4" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q4" t="n">
         <v>1845.599623041337</v>
@@ -4513,25 +4515,25 @@
         <v>1798.56100972851</v>
       </c>
       <c r="S4" t="n">
-        <v>1628.425962247645</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T4" t="n">
-        <v>1385.086614473545</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U4" t="n">
-        <v>1385.086614473545</v>
+        <v>1518.376561228814</v>
       </c>
       <c r="V4" t="n">
-        <v>1385.086614473545</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="W4" t="n">
-        <v>1385.086614473545</v>
+        <v>1236.665093836843</v>
       </c>
       <c r="X4" t="n">
-        <v>1142.52271791935</v>
+        <v>994.1011972826481</v>
       </c>
       <c r="Y4" t="n">
-        <v>916.1799496090923</v>
+        <v>767.7584289723901</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1186.805282784092</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="C5" t="n">
-        <v>759.9045527973917</v>
+        <v>1160.343983651049</v>
       </c>
       <c r="D5" t="n">
-        <v>759.9045527973917</v>
+        <v>1160.343983651049</v>
       </c>
       <c r="E5" t="n">
-        <v>759.9045527973917</v>
+        <v>1160.343983651049</v>
       </c>
       <c r="F5" t="n">
-        <v>334.7803709867919</v>
+        <v>735.2198018404492</v>
       </c>
       <c r="G5" t="n">
-        <v>334.7803709867919</v>
+        <v>330.8807394298979</v>
       </c>
       <c r="H5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I5" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J5" t="n">
         <v>399.5154512777223</v>
@@ -4571,22 +4573,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L5" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="M5" t="n">
-        <v>856.3013579804531</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N5" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O5" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P5" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q5" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R5" t="n">
         <v>1845.599623041337</v>
@@ -4598,19 +4600,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U5" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V5" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="W5" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="X5" t="n">
-        <v>1845.599623041337</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="Y5" t="n">
-        <v>1440.262352996227</v>
+        <v>1587.244713637749</v>
       </c>
     </row>
     <row r="6">
@@ -4620,28 +4622,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C6" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D6" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E6" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F6" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G6" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H6" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082672</v>
       </c>
       <c r="I6" t="n">
-        <v>44.35863542273858</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J6" t="n">
         <v>316.0561247023297</v>
@@ -4650,22 +4652,22 @@
         <v>316.0561247023297</v>
       </c>
       <c r="L6" t="n">
-        <v>772.8420314050605</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M6" t="n">
         <v>1229.627938107791</v>
       </c>
       <c r="N6" t="n">
-        <v>1229.627938107791</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="O6" t="n">
-        <v>1229.627938107791</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P6" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q6" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R6" t="n">
         <v>1845.599623041337</v>
@@ -4674,7 +4676,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T6" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U6" t="n">
         <v>1437.627243819906</v>
@@ -4683,13 +4685,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W6" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X6" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y6" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="7">
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1120.093114985063</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C7" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D7" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E7" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F7" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G7" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H7" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I7" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J7" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K7" t="n">
-        <v>320.9309218908219</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L7" t="n">
-        <v>675.6202431852428</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M7" t="n">
         <v>822.0807715636367</v>
@@ -4753,22 +4755,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T7" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U7" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V7" t="n">
-        <v>1563.888155649366</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="W7" t="n">
-        <v>1563.888155649366</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="X7" t="n">
-        <v>1536.601852007387</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y7" t="n">
-        <v>1310.259083697129</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1037.488274509431</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C8" t="n">
-        <v>610.5875445227312</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D8" t="n">
-        <v>187.2949237077314</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I8" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J8" t="n">
         <v>399.5154512777223</v>
@@ -4808,22 +4810,22 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L8" t="n">
-        <v>856.3013579804531</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M8" t="n">
-        <v>1313.087264683184</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="N8" t="n">
-        <v>1769.873171385915</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O8" t="n">
-        <v>1845.599623041337</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P8" t="n">
-        <v>1845.599623041337</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q8" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R8" t="n">
         <v>1845.599623041337</v>
@@ -4838,16 +4840,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V8" t="n">
-        <v>1845.599623041337</v>
+        <v>1488.110208167586</v>
       </c>
       <c r="W8" t="n">
-        <v>1449.208273341684</v>
+        <v>1091.718858467933</v>
       </c>
       <c r="X8" t="n">
-        <v>1037.488274509431</v>
+        <v>679.9988596356802</v>
       </c>
       <c r="Y8" t="n">
-        <v>1037.488274509431</v>
+        <v>679.9988596356802</v>
       </c>
     </row>
     <row r="9">
@@ -4857,52 +4859,52 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C9" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D9" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E9" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F9" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G9" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H9" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I9" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L9" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M9" t="n">
-        <v>475.2419029331441</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N9" t="n">
-        <v>932.027809635875</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O9" t="n">
-        <v>932.027809635875</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P9" t="n">
-        <v>1388.813716338606</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="Q9" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R9" t="n">
         <v>1845.599623041337</v>
@@ -4911,7 +4913,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T9" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U9" t="n">
         <v>1437.627243819906</v>
@@ -4920,13 +4922,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W9" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X9" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y9" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="10">
@@ -4936,46 +4938,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.7082609526723</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C10" t="n">
-        <v>180.7082609526723</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D10" t="n">
-        <v>180.7082609526723</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E10" t="n">
-        <v>180.7082609526723</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F10" t="n">
-        <v>180.7082609526723</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G10" t="n">
-        <v>180.7082609526723</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H10" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I10" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J10" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K10" t="n">
-        <v>320.9309218908219</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L10" t="n">
-        <v>430.8949765933859</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M10" t="n">
-        <v>822.0807715636367</v>
+        <v>1009.314709931336</v>
       </c>
       <c r="N10" t="n">
-        <v>1199.572282439673</v>
+        <v>1386.806220807371</v>
       </c>
       <c r="O10" t="n">
-        <v>1555.000411119436</v>
+        <v>1742.234349487134</v>
       </c>
       <c r="P10" t="n">
         <v>1845.599623041337</v>
@@ -4987,25 +4989,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T10" t="n">
-        <v>1675.464575560472</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U10" t="n">
-        <v>1395.280127060776</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="V10" t="n">
-        <v>1113.568659668805</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="W10" t="n">
-        <v>838.7162558413179</v>
+        <v>1565.415174541641</v>
       </c>
       <c r="X10" t="n">
-        <v>596.152359287123</v>
+        <v>1322.851277987446</v>
       </c>
       <c r="Y10" t="n">
-        <v>369.809590976865</v>
+        <v>1120.093114985063</v>
       </c>
     </row>
     <row r="11">
@@ -5015,40 +5017,40 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1014.031259917554</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="C11" t="n">
-        <v>1014.031259917554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D11" t="n">
-        <v>1014.031259917554</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E11" t="n">
-        <v>588.0543200654116</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F11" t="n">
-        <v>162.9301382548118</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J11" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K11" t="n">
         <v>493.6978991635576</v>
       </c>
       <c r="L11" t="n">
-        <v>932.027809635875</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M11" t="n">
-        <v>1388.813716338606</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="N11" t="n">
         <v>1845.599623041337</v>
@@ -5066,25 +5068,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S11" t="n">
-        <v>1845.599623041337</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T11" t="n">
-        <v>1845.599623041337</v>
+        <v>1520.30675795911</v>
       </c>
       <c r="U11" t="n">
-        <v>1845.599623041337</v>
+        <v>1261.951848555522</v>
       </c>
       <c r="V11" t="n">
-        <v>1845.599623041337</v>
+        <v>904.4624336817719</v>
       </c>
       <c r="W11" t="n">
-        <v>1845.599623041337</v>
+        <v>508.0710839821188</v>
       </c>
       <c r="X11" t="n">
-        <v>1433.879624209084</v>
+        <v>463.8127224475267</v>
       </c>
       <c r="Y11" t="n">
-        <v>1433.879624209084</v>
+        <v>463.8127224475267</v>
       </c>
     </row>
     <row r="12">
@@ -5100,43 +5102,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D12" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E12" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F12" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G12" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I12" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J12" t="n">
-        <v>308.6094817404178</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K12" t="n">
-        <v>308.6094817404178</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L12" t="n">
-        <v>308.6094817404178</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="M12" t="n">
-        <v>475.2419029331439</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N12" t="n">
-        <v>932.0278096358747</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O12" t="n">
         <v>1388.813716338606</v>
       </c>
       <c r="P12" t="n">
-        <v>1388.813716338606</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q12" t="n">
         <v>1845.599623041337</v>
@@ -5173,49 +5175,49 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>208.8845555819107</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C13" t="n">
-        <v>36.91199246082674</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D13" t="n">
-        <v>36.91199246082674</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E13" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F13" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G13" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H13" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J13" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K13" t="n">
-        <v>239.8047369801043</v>
+        <v>263.4395936666639</v>
       </c>
       <c r="L13" t="n">
-        <v>594.4940582745251</v>
+        <v>618.1289149610848</v>
       </c>
       <c r="M13" t="n">
-        <v>985.6798532447758</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N13" t="n">
-        <v>1363.171364120812</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O13" t="n">
-        <v>1718.599492800575</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P13" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q13" t="n">
         <v>1845.599623041337</v>
@@ -5227,22 +5229,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T13" t="n">
-        <v>1704.705508877583</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U13" t="n">
-        <v>1424.521060377887</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V13" t="n">
-        <v>1142.809592985916</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W13" t="n">
-        <v>867.9571891584293</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X13" t="n">
-        <v>625.3932926042344</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y13" t="n">
-        <v>399.0505242939764</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5254,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>608.6939898724443</v>
+        <v>887.1053432625264</v>
       </c>
       <c r="C14" t="n">
-        <v>462.0361742714265</v>
+        <v>460.2046132758265</v>
       </c>
       <c r="D14" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E14" t="n">
-        <v>462.0361742714265</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I14" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J14" t="n">
         <v>399.5154512777223</v>
@@ -5282,16 +5284,16 @@
         <v>399.5154512777223</v>
       </c>
       <c r="L14" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M14" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N14" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O14" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="P14" t="n">
         <v>1271.957808655251</v>
@@ -5306,22 +5308,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T14" t="n">
-        <v>1845.599623041337</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="U14" t="n">
-        <v>1845.599623041337</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="V14" t="n">
-        <v>1845.599623041337</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="W14" t="n">
-        <v>1845.599623041337</v>
+        <v>1704.162612139889</v>
       </c>
       <c r="X14" t="n">
-        <v>1433.879624209084</v>
+        <v>1292.442613307636</v>
       </c>
       <c r="Y14" t="n">
-        <v>1028.542354163974</v>
+        <v>887.1053432625264</v>
       </c>
     </row>
     <row r="15">
@@ -5331,52 +5333,52 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C15" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D15" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E15" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F15" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G15" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H15" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I15" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J15" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K15" t="n">
+        <v>44.35863542273857</v>
+      </c>
+      <c r="L15" t="n">
         <v>501.1445421254694</v>
       </c>
-      <c r="L15" t="n">
-        <v>957.9304488282003</v>
-      </c>
       <c r="M15" t="n">
-        <v>957.9304488282003</v>
+        <v>501.1445421254694</v>
       </c>
       <c r="N15" t="n">
-        <v>957.9304488282003</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O15" t="n">
-        <v>1306.794406253903</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P15" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q15" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R15" t="n">
         <v>1845.599623041337</v>
@@ -5385,7 +5387,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T15" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U15" t="n">
         <v>1437.627243819906</v>
@@ -5394,13 +5396,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W15" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X15" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y15" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>767.7584289723903</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C16" t="n">
-        <v>767.7584289723903</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D16" t="n">
-        <v>767.7584289723903</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E16" t="n">
-        <v>618.5955731436038</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F16" t="n">
-        <v>446.7337989181643</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G16" t="n">
-        <v>280.4768292123964</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H16" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J16" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K16" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L16" t="n">
-        <v>303.8948463526241</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M16" t="n">
-        <v>695.080641322875</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N16" t="n">
-        <v>1072.572152198911</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O16" t="n">
-        <v>1428.000280878674</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P16" t="n">
-        <v>1718.599492800575</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q16" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="R16" t="n">
-        <v>1798.56100972851</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S16" t="n">
-        <v>1798.56100972851</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T16" t="n">
-        <v>1798.56100972851</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U16" t="n">
-        <v>1518.376561228814</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V16" t="n">
-        <v>1236.665093836843</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W16" t="n">
-        <v>1236.665093836843</v>
+        <v>867.9571891584293</v>
       </c>
       <c r="X16" t="n">
-        <v>994.1011972826483</v>
+        <v>625.3932926042344</v>
       </c>
       <c r="Y16" t="n">
-        <v>767.7584289723903</v>
+        <v>399.0505242939764</v>
       </c>
     </row>
     <row r="17">
@@ -5489,52 +5491,52 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="C17" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D17" t="n">
-        <v>462.8889323129692</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E17" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F17" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G17" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I17" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K17" t="n">
-        <v>36.91199246082674</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L17" t="n">
-        <v>493.6978991635576</v>
+        <v>814.4714747539723</v>
       </c>
       <c r="M17" t="n">
-        <v>950.4838058662885</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="N17" t="n">
-        <v>1407.269712569019</v>
+        <v>1271.257381456703</v>
       </c>
       <c r="O17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="P17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q17" t="n">
-        <v>1845.599623041337</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R17" t="n">
         <v>1845.599623041337</v>
@@ -5552,13 +5554,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W17" t="n">
-        <v>1699.794565481862</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X17" t="n">
-        <v>1288.074566649609</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y17" t="n">
-        <v>882.7372966044993</v>
+        <v>632.1510044643211</v>
       </c>
     </row>
     <row r="18">
@@ -5568,46 +5570,46 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C18" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D18" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E18" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F18" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G18" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H18" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I18" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J18" t="n">
-        <v>44.35863542273854</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K18" t="n">
-        <v>44.35863542273854</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L18" t="n">
-        <v>475.2419029331441</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="M18" t="n">
-        <v>932.027809635875</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="N18" t="n">
+        <v>950.4838058662883</v>
+      </c>
+      <c r="O18" t="n">
         <v>1388.813716338606</v>
-      </c>
-      <c r="O18" t="n">
-        <v>1845.599623041337</v>
       </c>
       <c r="P18" t="n">
         <v>1845.599623041337</v>
@@ -5622,7 +5624,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T18" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U18" t="n">
         <v>1437.627243819906</v>
@@ -5631,13 +5633,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W18" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X18" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y18" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="19">
@@ -5647,31 +5649,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>349.7786697456644</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C19" t="n">
-        <v>177.8061066245805</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D19" t="n">
-        <v>36.91199246082674</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E19" t="n">
-        <v>36.91199246082674</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F19" t="n">
-        <v>36.91199246082674</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G19" t="n">
-        <v>36.91199246082674</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J19" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K19" t="n">
         <v>76.20565529896515</v>
@@ -5701,22 +5703,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T19" t="n">
-        <v>1845.599623041337</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="U19" t="n">
-        <v>1565.415174541641</v>
+        <v>1602.260275267236</v>
       </c>
       <c r="V19" t="n">
-        <v>1283.70370714967</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="W19" t="n">
-        <v>1008.851303322183</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="X19" t="n">
-        <v>766.287406767988</v>
+        <v>1320.548807875265</v>
       </c>
       <c r="Y19" t="n">
-        <v>539.9446384577301</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1805.062888170846</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="C20" t="n">
-        <v>1378.162158184147</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="D20" t="n">
-        <v>954.8695373691469</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="E20" t="n">
-        <v>528.8925975170044</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="F20" t="n">
-        <v>103.7684157064047</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G20" t="n">
-        <v>103.7684157064047</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I20" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J20" t="n">
-        <v>407.101683866143</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K20" t="n">
-        <v>407.101683866143</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="L20" t="n">
-        <v>957.7672188505812</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="M20" t="n">
-        <v>1508.432753835019</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="N20" t="n">
-        <v>2059.098288819458</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="O20" t="n">
-        <v>2224.911252462377</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="P20" t="n">
-        <v>2224.911252462377</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q20" t="n">
-        <v>2224.911252462377</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T20" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U20" t="n">
-        <v>2224.911252462377</v>
+        <v>1662.828038907671</v>
       </c>
       <c r="V20" t="n">
-        <v>2224.911252462377</v>
+        <v>1662.828038907671</v>
       </c>
       <c r="W20" t="n">
-        <v>2224.911252462377</v>
+        <v>1266.436689208018</v>
       </c>
       <c r="X20" t="n">
-        <v>2224.911252462377</v>
+        <v>1266.436689208018</v>
       </c>
       <c r="Y20" t="n">
-        <v>2224.911252462377</v>
+        <v>861.0994191629081</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C21" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D21" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E21" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F21" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G21" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I21" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J21" t="n">
-        <v>44.49822504924753</v>
+        <v>308.6094817404178</v>
       </c>
       <c r="K21" t="n">
-        <v>44.49822504924753</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L21" t="n">
-        <v>44.49822504924753</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M21" t="n">
-        <v>595.1637600336857</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N21" t="n">
-        <v>1145.829295018124</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="O21" t="n">
-        <v>1696.494830002562</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P21" t="n">
-        <v>1853.185855629757</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="Q21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R21" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S21" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T21" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U21" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V21" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W21" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X21" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y21" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1127.679347573484</v>
+        <v>683.0341144222228</v>
       </c>
       <c r="C22" t="n">
-        <v>955.7067844524004</v>
+        <v>683.0341144222228</v>
       </c>
       <c r="D22" t="n">
-        <v>792.3900115791711</v>
+        <v>683.0341144222228</v>
       </c>
       <c r="E22" t="n">
-        <v>626.1818057320246</v>
+        <v>516.8259085750764</v>
       </c>
       <c r="F22" t="n">
-        <v>454.3200315065851</v>
+        <v>344.9641343496368</v>
       </c>
       <c r="G22" t="n">
-        <v>288.0630618008172</v>
+        <v>178.7071646438689</v>
       </c>
       <c r="H22" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I22" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J22" t="n">
-        <v>101.9895532734055</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K22" t="n">
-        <v>328.5171544792427</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L22" t="n">
-        <v>683.2064757736634</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M22" t="n">
-        <v>1074.392270743914</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N22" t="n">
-        <v>1451.88378161995</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O22" t="n">
-        <v>1807.311910299713</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P22" t="n">
-        <v>2097.911122221614</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q22" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R22" t="n">
-        <v>2177.872639149549</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S22" t="n">
-        <v>2177.872639149549</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T22" t="n">
-        <v>2068.463448541974</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U22" t="n">
-        <v>2068.463448541974</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V22" t="n">
-        <v>1786.751981150003</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="W22" t="n">
-        <v>1786.751981150003</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="X22" t="n">
-        <v>1544.188084595808</v>
+        <v>909.3768827324808</v>
       </c>
       <c r="Y22" t="n">
-        <v>1317.84531628555</v>
+        <v>683.0341144222228</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1320.668515703089</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C23" t="n">
-        <v>893.7677857163897</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D23" t="n">
-        <v>470.47516490139</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J23" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K23" t="n">
-        <v>572.914647509062</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L23" t="n">
-        <v>1123.5801824935</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="M23" t="n">
-        <v>1674.245717477938</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N23" t="n">
-        <v>1674.245717477938</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O23" t="n">
-        <v>2224.911252462377</v>
+        <v>1407.269712569019</v>
       </c>
       <c r="P23" t="n">
-        <v>2224.911252462377</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="Q23" t="n">
-        <v>2224.911252462377</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R23" t="n">
-        <v>2224.911252462377</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S23" t="n">
-        <v>2152.236878826872</v>
+        <v>1741.232328914477</v>
       </c>
       <c r="T23" t="n">
-        <v>2152.236878826872</v>
+        <v>1724.802281946922</v>
       </c>
       <c r="U23" t="n">
-        <v>2152.236878826872</v>
+        <v>1724.802281946922</v>
       </c>
       <c r="V23" t="n">
-        <v>2152.236878826872</v>
+        <v>1724.802281946922</v>
       </c>
       <c r="W23" t="n">
-        <v>2152.236878826872</v>
+        <v>1724.802281946922</v>
       </c>
       <c r="X23" t="n">
-        <v>1740.51687999462</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="Y23" t="n">
-        <v>1740.51687999462</v>
+        <v>1313.082283114669</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>611.6217160807028</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C24" t="n">
-        <v>494.1158125982075</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D24" t="n">
-        <v>390.2758541134926</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E24" t="n">
-        <v>285.5739203864298</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F24" t="n">
-        <v>191.928090069334</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G24" t="n">
-        <v>97.87431828693795</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H24" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J24" t="n">
-        <v>44.49822504924753</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="K24" t="n">
-        <v>595.1637600336857</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="L24" t="n">
-        <v>1145.829295018124</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="M24" t="n">
-        <v>1302.520320645319</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="N24" t="n">
-        <v>1302.520320645319</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O24" t="n">
-        <v>1302.520320645319</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R24" t="n">
-        <v>1853.185855629757</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S24" t="n">
-        <v>1771.861608191012</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T24" t="n">
-        <v>1629.98167248869</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U24" t="n">
-        <v>1445.213476408327</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V24" t="n">
-        <v>1240.240337547593</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W24" t="n">
-        <v>1043.71896038081</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X24" t="n">
-        <v>880.2416141474731</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y24" t="n">
-        <v>740.5487255007655</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1127.679347573484</v>
+        <v>208.8845555819107</v>
       </c>
       <c r="C25" t="n">
-        <v>955.7067844524004</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D25" t="n">
-        <v>792.3900115791711</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E25" t="n">
-        <v>626.1818057320246</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F25" t="n">
-        <v>454.3200315065851</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G25" t="n">
-        <v>288.0630618008172</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H25" t="n">
-        <v>144.2667933089716</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I25" t="n">
-        <v>44.49822504924753</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J25" t="n">
-        <v>101.9895532734055</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="K25" t="n">
-        <v>328.5171544792427</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L25" t="n">
-        <v>683.2064757736634</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M25" t="n">
-        <v>1074.392270743914</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N25" t="n">
-        <v>1451.88378161995</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O25" t="n">
-        <v>1807.311910299713</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P25" t="n">
-        <v>2097.911122221614</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R25" t="n">
-        <v>2224.911252462376</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S25" t="n">
-        <v>2224.911252462376</v>
+        <v>1757.878887939617</v>
       </c>
       <c r="T25" t="n">
-        <v>2224.911252462376</v>
+        <v>1514.539540165517</v>
       </c>
       <c r="U25" t="n">
-        <v>2224.911252462376</v>
+        <v>1234.355091665822</v>
       </c>
       <c r="V25" t="n">
-        <v>1943.199785070404</v>
+        <v>952.6436242738505</v>
       </c>
       <c r="W25" t="n">
-        <v>1786.751981150003</v>
+        <v>677.7912204463636</v>
       </c>
       <c r="X25" t="n">
-        <v>1544.188084595808</v>
+        <v>435.2273238921687</v>
       </c>
       <c r="Y25" t="n">
-        <v>1317.84531628555</v>
+        <v>208.8845555819107</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6202,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>334.7803709867919</v>
+        <v>1313.082283114669</v>
       </c>
       <c r="C26" t="n">
-        <v>334.7803709867919</v>
+        <v>886.181553127969</v>
       </c>
       <c r="D26" t="n">
-        <v>334.7803709867919</v>
+        <v>462.8889323129692</v>
       </c>
       <c r="E26" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F26" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G26" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I26" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J26" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K26" t="n">
-        <v>814.4714747539724</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L26" t="n">
-        <v>814.4714747539724</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M26" t="n">
-        <v>814.4714747539724</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N26" t="n">
-        <v>814.4714747539724</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O26" t="n">
-        <v>1271.257381456703</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q26" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R26" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T26" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U26" t="n">
-        <v>1548.228989563808</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V26" t="n">
-        <v>1548.228989563808</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W26" t="n">
-        <v>1151.837639864154</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X26" t="n">
-        <v>740.1176410319016</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y26" t="n">
-        <v>334.7803709867919</v>
+        <v>1732.930647406199</v>
       </c>
     </row>
     <row r="27">
@@ -6285,46 +6287,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D27" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E27" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F27" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G27" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H27" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I27" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J27" t="n">
-        <v>36.91199246082674</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K27" t="n">
-        <v>36.91199246082674</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L27" t="n">
-        <v>493.6978991635576</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M27" t="n">
-        <v>932.0278096358747</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="N27" t="n">
-        <v>1388.813716338606</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="O27" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="P27" t="n">
-        <v>1845.599623041337</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q27" t="n">
-        <v>1845.599623041337</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R27" t="n">
         <v>1845.599623041337</v>
@@ -6358,31 +6360,31 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1020.32454672534</v>
+        <v>629.96311824536</v>
       </c>
       <c r="C28" t="n">
-        <v>848.3519836042556</v>
+        <v>457.9905551242759</v>
       </c>
       <c r="D28" t="n">
-        <v>685.0352107310263</v>
+        <v>457.9905551242759</v>
       </c>
       <c r="E28" t="n">
-        <v>518.8270048838798</v>
+        <v>375.0307363920342</v>
       </c>
       <c r="F28" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G28" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J28" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K28" t="n">
         <v>76.20565529896515</v>
@@ -6415,19 +6417,19 @@
         <v>1845.599623041337</v>
       </c>
       <c r="U28" t="n">
-        <v>1679.397180301858</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V28" t="n">
-        <v>1679.397180301858</v>
+        <v>1563.888155649365</v>
       </c>
       <c r="W28" t="n">
-        <v>1679.397180301858</v>
+        <v>1289.035751821878</v>
       </c>
       <c r="X28" t="n">
-        <v>1436.833283747663</v>
+        <v>1046.471855267684</v>
       </c>
       <c r="Y28" t="n">
-        <v>1210.490515437405</v>
+        <v>820.1290869574257</v>
       </c>
     </row>
     <row r="29">
@@ -6437,52 +6439,52 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>761.6811009734918</v>
+        <v>1738.206464925269</v>
       </c>
       <c r="C29" t="n">
-        <v>334.7803709867919</v>
+        <v>1311.305734938569</v>
       </c>
       <c r="D29" t="n">
-        <v>334.7803709867919</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E29" t="n">
-        <v>334.7803709867919</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F29" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G29" t="n">
-        <v>334.7803709867919</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I29" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J29" t="n">
         <v>399.5154512777223</v>
       </c>
       <c r="K29" t="n">
-        <v>399.5154512777223</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L29" t="n">
-        <v>815.1719019525203</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="M29" t="n">
-        <v>1271.957808655251</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="N29" t="n">
-        <v>1271.957808655251</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="O29" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P29" t="n">
-        <v>1271.957808655251</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q29" t="n">
-        <v>1728.043288159434</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R29" t="n">
         <v>1845.599623041337</v>
@@ -6500,13 +6502,13 @@
         <v>1845.599623041337</v>
       </c>
       <c r="W29" t="n">
-        <v>1578.738369850854</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X29" t="n">
-        <v>1167.018371018602</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y29" t="n">
-        <v>761.6811009734918</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="30">
@@ -6522,46 +6524,46 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D30" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E30" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F30" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G30" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H30" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I30" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J30" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K30" t="n">
-        <v>765.3953884431487</v>
+        <v>475.2419029331443</v>
       </c>
       <c r="L30" t="n">
-        <v>765.3953884431487</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="M30" t="n">
-        <v>850.0084995511716</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="N30" t="n">
-        <v>850.0084995511716</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O30" t="n">
-        <v>1306.794406253902</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P30" t="n">
-        <v>1306.794406253902</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q30" t="n">
-        <v>1763.580312956633</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R30" t="n">
         <v>1845.599623041337</v>
@@ -6595,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>595.376908067218</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C31" t="n">
-        <v>595.376908067218</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D31" t="n">
-        <v>595.376908067218</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E31" t="n">
-        <v>595.376908067218</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F31" t="n">
         <v>446.7337989181643</v>
@@ -6616,25 +6618,25 @@
         <v>136.6805607205508</v>
       </c>
       <c r="I31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J31" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K31" t="n">
-        <v>263.4395936666639</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L31" t="n">
-        <v>618.1289149610848</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M31" t="n">
-        <v>1009.314709931336</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N31" t="n">
-        <v>1386.806220807371</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O31" t="n">
-        <v>1742.234349487134</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P31" t="n">
         <v>1845.599623041337</v>
@@ -6643,28 +6645,28 @@
         <v>1845.599623041337</v>
       </c>
       <c r="R31" t="n">
-        <v>1845.599623041337</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="S31" t="n">
-        <v>1675.464575560472</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="T31" t="n">
-        <v>1432.125227786372</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="U31" t="n">
-        <v>1151.940779286676</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="V31" t="n">
-        <v>870.229311894705</v>
+        <v>1798.56100972851</v>
       </c>
       <c r="W31" t="n">
-        <v>595.376908067218</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="X31" t="n">
-        <v>595.376908067218</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y31" t="n">
-        <v>595.376908067218</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="32">
@@ -6674,49 +6676,49 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>463.8127224475267</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="C32" t="n">
-        <v>36.91199246082674</v>
+        <v>1715.64479734912</v>
       </c>
       <c r="D32" t="n">
-        <v>36.91199246082674</v>
+        <v>1292.35217653412</v>
       </c>
       <c r="E32" t="n">
-        <v>36.91199246082674</v>
+        <v>866.3752366819779</v>
       </c>
       <c r="F32" t="n">
-        <v>36.91199246082674</v>
+        <v>441.2510548713781</v>
       </c>
       <c r="G32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I32" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J32" t="n">
-        <v>399.5154512777223</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="K32" t="n">
-        <v>399.5154512777223</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="L32" t="n">
-        <v>399.5154512777223</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="M32" t="n">
-        <v>814.4714747539724</v>
+        <v>358.3859952497894</v>
       </c>
       <c r="N32" t="n">
-        <v>1271.257381456703</v>
+        <v>815.1719019525202</v>
       </c>
       <c r="O32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P32" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q32" t="n">
         <v>1728.043288159434</v>
@@ -6734,16 +6736,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V32" t="n">
-        <v>1691.772435270963</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W32" t="n">
-        <v>1295.38108557131</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X32" t="n">
-        <v>883.6610867390567</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y32" t="n">
-        <v>883.6610867390567</v>
+        <v>1845.599623041337</v>
       </c>
     </row>
     <row r="33">
@@ -6753,52 +6755,52 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C33" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D33" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E33" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F33" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G33" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H33" t="n">
-        <v>36.91199246082694</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I33" t="n">
-        <v>44.35863542273878</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J33" t="n">
-        <v>316.0561247023298</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K33" t="n">
-        <v>772.8420314050607</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L33" t="n">
-        <v>850.0084995511718</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M33" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="N33" t="n">
-        <v>1306.794406253903</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="O33" t="n">
-        <v>1763.580312956634</v>
+        <v>1388.813716338606</v>
       </c>
       <c r="P33" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q33" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R33" t="n">
         <v>1845.599623041337</v>
@@ -6807,7 +6809,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T33" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U33" t="n">
         <v>1437.627243819906</v>
@@ -6816,13 +6818,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W33" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X33" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y33" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="34">
@@ -6832,34 +6834,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>36.91199246082674</v>
+        <v>1120.093114985063</v>
       </c>
       <c r="C34" t="n">
-        <v>36.91199246082674</v>
+        <v>948.1205518639796</v>
       </c>
       <c r="D34" t="n">
-        <v>36.91199246082674</v>
+        <v>784.8037789907503</v>
       </c>
       <c r="E34" t="n">
-        <v>36.91199246082674</v>
+        <v>618.5955731436038</v>
       </c>
       <c r="F34" t="n">
-        <v>36.91199246082674</v>
+        <v>446.7337989181643</v>
       </c>
       <c r="G34" t="n">
-        <v>36.91199246082674</v>
+        <v>280.4768292123964</v>
       </c>
       <c r="H34" t="n">
-        <v>36.91199246082674</v>
+        <v>136.6805607205508</v>
       </c>
       <c r="I34" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J34" t="n">
         <v>94.40332068498475</v>
       </c>
       <c r="K34" t="n">
-        <v>320.9309218908219</v>
+        <v>94.40332068498475</v>
       </c>
       <c r="L34" t="n">
         <v>430.8949765933859</v>
@@ -6883,25 +6885,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S34" t="n">
-        <v>1776.072293530599</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T34" t="n">
-        <v>1532.732945756499</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U34" t="n">
-        <v>1252.548497256803</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V34" t="n">
-        <v>970.8370298648322</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W34" t="n">
-        <v>695.9846260373453</v>
+        <v>1779.165748561582</v>
       </c>
       <c r="X34" t="n">
-        <v>453.4207294831504</v>
+        <v>1536.601852007387</v>
       </c>
       <c r="Y34" t="n">
-        <v>227.0779611728924</v>
+        <v>1310.259083697129</v>
       </c>
     </row>
     <row r="35">
@@ -6911,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>274.6615895905708</v>
+        <v>1020.413988704697</v>
       </c>
       <c r="C35" t="n">
-        <v>274.6615895905708</v>
+        <v>888.013114123569</v>
       </c>
       <c r="D35" t="n">
-        <v>274.6615895905708</v>
+        <v>888.013114123569</v>
       </c>
       <c r="E35" t="n">
-        <v>274.6615895905708</v>
+        <v>462.0361742714265</v>
       </c>
       <c r="F35" t="n">
-        <v>274.6615895905708</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G35" t="n">
-        <v>274.6615895905708</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I35" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J35" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K35" t="n">
-        <v>475.2419029331441</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L35" t="n">
-        <v>475.2419029331441</v>
+        <v>475.942330131692</v>
       </c>
       <c r="M35" t="n">
-        <v>932.027809635875</v>
+        <v>932.7282368344228</v>
       </c>
       <c r="N35" t="n">
-        <v>1388.813716338606</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="O35" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="P35" t="n">
-        <v>1845.599623041337</v>
+        <v>1389.514143537154</v>
       </c>
       <c r="Q35" t="n">
         <v>1845.599623041337</v>
@@ -6971,16 +6973,16 @@
         <v>1845.599623041337</v>
       </c>
       <c r="V35" t="n">
-        <v>1488.110208167586</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W35" t="n">
-        <v>1091.718858467933</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="X35" t="n">
-        <v>679.9988596356804</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.6615895905708</v>
+        <v>1440.262352996227</v>
       </c>
     </row>
     <row r="36">
@@ -6996,43 +6998,43 @@
         <v>486.5295800097867</v>
       </c>
       <c r="D36" t="n">
-        <v>382.6896215250718</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E36" t="n">
-        <v>277.987687798009</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F36" t="n">
         <v>184.3418574809131</v>
       </c>
       <c r="G36" t="n">
-        <v>90.28808569851715</v>
+        <v>90.28808569851712</v>
       </c>
       <c r="H36" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I36" t="n">
-        <v>36.91199246082674</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J36" t="n">
-        <v>308.6094817404178</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K36" t="n">
-        <v>765.3953884431487</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L36" t="n">
-        <v>932.0278096358747</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="M36" t="n">
-        <v>932.0278096358747</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="N36" t="n">
-        <v>1388.813716338606</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O36" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P36" t="n">
-        <v>1388.813716338606</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="Q36" t="n">
         <v>1845.599623041337</v>
@@ -7069,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>629.9631182453602</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C37" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D37" t="n">
-        <v>541.2389422391807</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E37" t="n">
-        <v>375.0307363920342</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F37" t="n">
-        <v>203.1689621665946</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J37" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K37" t="n">
         <v>76.20565529896515</v>
@@ -7120,25 +7122,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S37" t="n">
-        <v>1845.599623041337</v>
+        <v>1776.072293530599</v>
       </c>
       <c r="T37" t="n">
-        <v>1845.599623041337</v>
+        <v>1532.732945756499</v>
       </c>
       <c r="U37" t="n">
-        <v>1845.599623041337</v>
+        <v>1252.548497256803</v>
       </c>
       <c r="V37" t="n">
-        <v>1563.888155649366</v>
+        <v>970.8370298648322</v>
       </c>
       <c r="W37" t="n">
-        <v>1289.035751821879</v>
+        <v>695.9846260373453</v>
       </c>
       <c r="X37" t="n">
-        <v>1046.471855267684</v>
+        <v>453.4207294831504</v>
       </c>
       <c r="Y37" t="n">
-        <v>820.1290869574259</v>
+        <v>227.0779611728924</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>671.8704941764031</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="C38" t="n">
-        <v>244.9697641897032</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="D38" t="n">
-        <v>244.9697641897032</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="E38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="F38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="G38" t="n">
-        <v>36.91199246082674</v>
+        <v>334.7803709867919</v>
       </c>
       <c r="H38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I38" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J38" t="n">
-        <v>399.5154512777223</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K38" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="L38" t="n">
-        <v>856.3013579804531</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="M38" t="n">
-        <v>1313.087264683184</v>
+        <v>493.6978991635576</v>
       </c>
       <c r="N38" t="n">
-        <v>1313.087264683184</v>
+        <v>950.4838058662883</v>
       </c>
       <c r="O38" t="n">
-        <v>1313.087264683184</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P38" t="n">
-        <v>1769.873171385915</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q38" t="n">
-        <v>1769.873171385915</v>
+        <v>1728.043288159434</v>
       </c>
       <c r="R38" t="n">
         <v>1845.599623041337</v>
       </c>
       <c r="S38" t="n">
-        <v>1845.599623041337</v>
+        <v>1751.816085634862</v>
       </c>
       <c r="T38" t="n">
-        <v>1845.599623041337</v>
+        <v>1530.890514679495</v>
       </c>
       <c r="U38" t="n">
-        <v>1845.599623041337</v>
+        <v>1530.890514679495</v>
       </c>
       <c r="V38" t="n">
-        <v>1488.110208167586</v>
+        <v>1173.401099805744</v>
       </c>
       <c r="W38" t="n">
-        <v>1091.718858467933</v>
+        <v>1173.401099805744</v>
       </c>
       <c r="X38" t="n">
-        <v>1091.718858467933</v>
+        <v>761.6811009734918</v>
       </c>
       <c r="Y38" t="n">
-        <v>1091.718858467933</v>
+        <v>761.6811009734918</v>
       </c>
     </row>
     <row r="39">
@@ -7227,52 +7229,52 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C39" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D39" t="n">
-        <v>382.6896215250719</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E39" t="n">
-        <v>277.9876877980091</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F39" t="n">
-        <v>184.3418574809132</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G39" t="n">
-        <v>90.28808569851708</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H39" t="n">
-        <v>36.9119924608267</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I39" t="n">
-        <v>44.35863542273854</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J39" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K39" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="L39" t="n">
-        <v>316.0561247023296</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="M39" t="n">
         <v>772.8420314050604</v>
       </c>
       <c r="N39" t="n">
-        <v>850.0084995511718</v>
+        <v>1229.627938107791</v>
       </c>
       <c r="O39" t="n">
-        <v>1306.794406253903</v>
+        <v>1686.413844810522</v>
       </c>
       <c r="P39" t="n">
-        <v>1306.794406253903</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q39" t="n">
-        <v>1763.580312956634</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R39" t="n">
         <v>1845.599623041337</v>
@@ -7281,7 +7283,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T39" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U39" t="n">
         <v>1437.627243819906</v>
@@ -7290,13 +7292,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W39" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X39" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y39" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="40">
@@ -7306,49 +7308,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1120.093114985063</v>
+        <v>1020.32454672534</v>
       </c>
       <c r="C40" t="n">
-        <v>948.1205518639796</v>
+        <v>848.3519836042556</v>
       </c>
       <c r="D40" t="n">
-        <v>784.8037789907503</v>
+        <v>685.0352107310263</v>
       </c>
       <c r="E40" t="n">
-        <v>618.5955731436038</v>
+        <v>518.8270048838798</v>
       </c>
       <c r="F40" t="n">
-        <v>446.7337989181643</v>
+        <v>346.9652306584402</v>
       </c>
       <c r="G40" t="n">
-        <v>280.4768292123964</v>
+        <v>180.7082609526723</v>
       </c>
       <c r="H40" t="n">
-        <v>136.6805607205508</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I40" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J40" t="n">
-        <v>94.40332068498475</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K40" t="n">
-        <v>320.9309218908219</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="L40" t="n">
-        <v>675.6202431852428</v>
+        <v>391.6013137552475</v>
       </c>
       <c r="M40" t="n">
-        <v>695.080641322875</v>
+        <v>782.7871087254983</v>
       </c>
       <c r="N40" t="n">
-        <v>1072.572152198911</v>
+        <v>1160.278619601534</v>
       </c>
       <c r="O40" t="n">
-        <v>1428.000280878674</v>
+        <v>1515.706748281297</v>
       </c>
       <c r="P40" t="n">
-        <v>1718.599492800575</v>
+        <v>1806.305960203198</v>
       </c>
       <c r="Q40" t="n">
         <v>1845.599623041337</v>
@@ -7360,22 +7362,22 @@
         <v>1845.599623041337</v>
       </c>
       <c r="T40" t="n">
-        <v>1845.599623041337</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="U40" t="n">
-        <v>1845.599623041337</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="V40" t="n">
-        <v>1845.599623041337</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="W40" t="n">
-        <v>1779.165748561582</v>
+        <v>1679.397180301858</v>
       </c>
       <c r="X40" t="n">
-        <v>1536.601852007387</v>
+        <v>1436.833283747663</v>
       </c>
       <c r="Y40" t="n">
-        <v>1310.259083697129</v>
+        <v>1210.490515437405</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>519.6553448781843</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="C41" t="n">
-        <v>92.75461489148444</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="D41" t="n">
-        <v>92.75461489148444</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="E41" t="n">
-        <v>92.75461489148444</v>
+        <v>496.9330455279553</v>
       </c>
       <c r="F41" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="G41" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="H41" t="n">
-        <v>36.91199246082674</v>
+        <v>71.80886371735552</v>
       </c>
       <c r="I41" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J41" t="n">
         <v>399.5154512777223</v>
@@ -7421,13 +7423,13 @@
         <v>856.3013579804531</v>
       </c>
       <c r="N41" t="n">
-        <v>1313.087264683184</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="O41" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="P41" t="n">
-        <v>1728.043288159434</v>
+        <v>1271.957808655251</v>
       </c>
       <c r="Q41" t="n">
         <v>1728.043288159434</v>
@@ -7436,25 +7438,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S41" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T41" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U41" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="V41" t="n">
-        <v>1741.232328914477</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="W41" t="n">
-        <v>1344.840979214824</v>
+        <v>1449.208273341683</v>
       </c>
       <c r="X41" t="n">
-        <v>1344.840979214824</v>
+        <v>1037.488274509431</v>
       </c>
       <c r="Y41" t="n">
-        <v>939.5037091697144</v>
+        <v>916.7814098194854</v>
       </c>
     </row>
     <row r="42">
@@ -7464,46 +7466,46 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>604.0354834922822</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C42" t="n">
-        <v>486.529580009787</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D42" t="n">
-        <v>382.689621525072</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E42" t="n">
-        <v>277.9876877980092</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F42" t="n">
-        <v>184.3418574809133</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G42" t="n">
-        <v>90.28808569851735</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I42" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J42" t="n">
         <v>308.6094817404178</v>
       </c>
       <c r="K42" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="L42" t="n">
-        <v>308.6094817404178</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="M42" t="n">
         <v>765.3953884431487</v>
       </c>
       <c r="N42" t="n">
-        <v>1222.18129514588</v>
+        <v>765.3953884431487</v>
       </c>
       <c r="O42" t="n">
-        <v>1222.18129514588</v>
+        <v>932.0278096358751</v>
       </c>
       <c r="P42" t="n">
         <v>1388.813716338606</v>
@@ -7518,7 +7520,7 @@
         <v>1764.275375602591</v>
       </c>
       <c r="T42" t="n">
-        <v>1622.39543990027</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U42" t="n">
         <v>1437.627243819906</v>
@@ -7527,13 +7529,13 @@
         <v>1232.654104959172</v>
       </c>
       <c r="W42" t="n">
-        <v>1036.13272779239</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X42" t="n">
-        <v>872.6553815590526</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y42" t="n">
-        <v>732.9624929123449</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="43">
@@ -7543,49 +7545,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1020.32454672534</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="C43" t="n">
-        <v>848.3519836042556</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="D43" t="n">
-        <v>685.0352107310263</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="E43" t="n">
-        <v>518.8270048838798</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="F43" t="n">
-        <v>346.9652306584402</v>
+        <v>203.1689621665946</v>
       </c>
       <c r="G43" t="n">
-        <v>180.7082609526723</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J43" t="n">
-        <v>36.91199246082674</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K43" t="n">
-        <v>36.91199246082674</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L43" t="n">
-        <v>391.6013137552475</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M43" t="n">
-        <v>782.7871087254983</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N43" t="n">
-        <v>1160.278619601534</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O43" t="n">
-        <v>1515.706748281297</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P43" t="n">
-        <v>1806.305960203198</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q43" t="n">
         <v>1845.599623041337</v>
@@ -7594,25 +7596,25 @@
         <v>1845.599623041337</v>
       </c>
       <c r="S43" t="n">
-        <v>1845.599623041337</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T43" t="n">
-        <v>1845.599623041337</v>
+        <v>1432.125227786371</v>
       </c>
       <c r="U43" t="n">
-        <v>1845.599623041337</v>
+        <v>1151.940779286676</v>
       </c>
       <c r="V43" t="n">
-        <v>1845.599623041337</v>
+        <v>870.2293118947046</v>
       </c>
       <c r="W43" t="n">
-        <v>1679.397180301858</v>
+        <v>595.3769080672175</v>
       </c>
       <c r="X43" t="n">
-        <v>1436.833283747663</v>
+        <v>352.8130115130226</v>
       </c>
       <c r="Y43" t="n">
-        <v>1210.490515437405</v>
+        <v>203.1689621665946</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>769.8752515998287</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="C44" t="n">
-        <v>769.8752515998287</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="D44" t="n">
-        <v>769.8752515998287</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="E44" t="n">
-        <v>399.6005057361174</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="F44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I44" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J44" t="n">
-        <v>391.9292186893015</v>
+        <v>399.5154512777223</v>
       </c>
       <c r="K44" t="n">
-        <v>391.9292186893015</v>
+        <v>856.3013579804531</v>
       </c>
       <c r="L44" t="n">
-        <v>391.9292186893015</v>
+        <v>1313.087264683184</v>
       </c>
       <c r="M44" t="n">
-        <v>754.835497110325</v>
+        <v>1769.873171385915</v>
       </c>
       <c r="N44" t="n">
-        <v>985.825380317371</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="O44" t="n">
-        <v>985.825380317371</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="P44" t="n">
-        <v>985.825380317371</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q44" t="n">
-        <v>1348.731658738395</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="T44" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="U44" t="n">
-        <v>1466.287993620297</v>
+        <v>1587.244713637749</v>
       </c>
       <c r="V44" t="n">
-        <v>1466.287993620297</v>
+        <v>1229.755298763998</v>
       </c>
       <c r="W44" t="n">
-        <v>1466.287993620297</v>
+        <v>833.3639490643452</v>
       </c>
       <c r="X44" t="n">
-        <v>1140.14999746354</v>
+        <v>421.6439502320924</v>
       </c>
       <c r="Y44" t="n">
-        <v>1140.14999746354</v>
+        <v>36.91199246082673</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>596.4492509038612</v>
+        <v>604.035483492282</v>
       </c>
       <c r="C45" t="n">
-        <v>478.943347421366</v>
+        <v>486.5295800097867</v>
       </c>
       <c r="D45" t="n">
-        <v>375.103388936651</v>
+        <v>382.6896215250717</v>
       </c>
       <c r="E45" t="n">
-        <v>270.4014552095882</v>
+        <v>277.9876877980089</v>
       </c>
       <c r="F45" t="n">
-        <v>176.7556248924923</v>
+        <v>184.3418574809131</v>
       </c>
       <c r="G45" t="n">
-        <v>82.70185311009635</v>
+        <v>90.28808569851714</v>
       </c>
       <c r="H45" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I45" t="n">
-        <v>29.32575987240594</v>
+        <v>44.35863542273857</v>
       </c>
       <c r="J45" t="n">
-        <v>29.32575987240594</v>
+        <v>316.0561247023297</v>
       </c>
       <c r="K45" t="n">
-        <v>29.32575987240594</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="L45" t="n">
-        <v>29.32575987240594</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="M45" t="n">
-        <v>295.5498482725233</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="N45" t="n">
-        <v>658.4561266935468</v>
+        <v>772.8420314050604</v>
       </c>
       <c r="O45" t="n">
-        <v>1021.36240511457</v>
+        <v>850.0084995511719</v>
       </c>
       <c r="P45" t="n">
-        <v>1384.268683535594</v>
+        <v>1306.794406253903</v>
       </c>
       <c r="Q45" t="n">
-        <v>1384.268683535594</v>
+        <v>1763.580312956633</v>
       </c>
       <c r="R45" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S45" t="n">
-        <v>1384.963746181552</v>
+        <v>1764.275375602591</v>
       </c>
       <c r="T45" t="n">
-        <v>1243.08381047923</v>
+        <v>1622.395439900269</v>
       </c>
       <c r="U45" t="n">
-        <v>1058.315614398867</v>
+        <v>1437.627243819906</v>
       </c>
       <c r="V45" t="n">
-        <v>1058.315614398867</v>
+        <v>1232.654104959172</v>
       </c>
       <c r="W45" t="n">
-        <v>1028.546495203969</v>
+        <v>1036.132727792389</v>
       </c>
       <c r="X45" t="n">
-        <v>865.0691489706315</v>
+        <v>872.6553815590523</v>
       </c>
       <c r="Y45" t="n">
-        <v>725.3762603239239</v>
+        <v>732.9624929123447</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>216.0652786461782</v>
+        <v>179.6436222647991</v>
       </c>
       <c r="C46" t="n">
-        <v>216.0652786461782</v>
+        <v>179.6436222647991</v>
       </c>
       <c r="D46" t="n">
-        <v>52.74850577294887</v>
+        <v>179.6436222647991</v>
       </c>
       <c r="E46" t="n">
-        <v>52.74850577294887</v>
+        <v>179.6436222647991</v>
       </c>
       <c r="F46" t="n">
-        <v>52.74850577294887</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="G46" t="n">
-        <v>52.74850577294887</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="H46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="I46" t="n">
-        <v>29.32575987240594</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="J46" t="n">
-        <v>86.81708809656396</v>
+        <v>36.91199246082673</v>
       </c>
       <c r="K46" t="n">
-        <v>313.3446893024012</v>
+        <v>76.20565529896515</v>
       </c>
       <c r="L46" t="n">
-        <v>668.0340105968219</v>
+        <v>430.8949765933859</v>
       </c>
       <c r="M46" t="n">
-        <v>668.0340105968219</v>
+        <v>822.0807715636367</v>
       </c>
       <c r="N46" t="n">
-        <v>820.2606530186332</v>
+        <v>1199.572282439673</v>
       </c>
       <c r="O46" t="n">
-        <v>1175.688781698396</v>
+        <v>1555.000411119436</v>
       </c>
       <c r="P46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="Q46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="R46" t="n">
-        <v>1466.287993620297</v>
+        <v>1845.599623041337</v>
       </c>
       <c r="S46" t="n">
-        <v>1296.152946139432</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="T46" t="n">
-        <v>1052.813598365332</v>
+        <v>1675.464575560472</v>
       </c>
       <c r="U46" t="n">
-        <v>772.6291498656362</v>
+        <v>1395.280127060776</v>
       </c>
       <c r="V46" t="n">
-        <v>490.9176824736651</v>
+        <v>1113.568659668805</v>
       </c>
       <c r="W46" t="n">
-        <v>216.0652786461782</v>
+        <v>838.7162558413177</v>
       </c>
       <c r="X46" t="n">
-        <v>216.0652786461782</v>
+        <v>596.1523592871227</v>
       </c>
       <c r="Y46" t="n">
-        <v>216.0652786461782</v>
+        <v>369.8095909768648</v>
       </c>
     </row>
   </sheetData>
@@ -7982,13 +7984,13 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L2" t="n">
-        <v>499.7119481929572</v>
+        <v>114.80340774113</v>
       </c>
       <c r="M2" t="n">
-        <v>37.43126289943181</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N2" t="n">
-        <v>456.4271212953049</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O2" t="n">
         <v>37.3909593560241</v>
@@ -8000,7 +8002,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R2" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8052,28 +8054,28 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J3" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K3" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L3" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M3" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N3" t="n">
         <v>21.34302821354166</v>
       </c>
       <c r="O3" t="n">
-        <v>383.0815870834487</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P3" t="n">
-        <v>483.1707469651629</v>
+        <v>99.7167686251434</v>
       </c>
       <c r="Q3" t="n">
         <v>484.1469440493127</v>
@@ -8134,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>78.70880469517259</v>
+        <v>60.32732450727401</v>
       </c>
       <c r="K4" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L4" t="n">
         <v>380.1908016072373</v>
@@ -8146,7 +8148,7 @@
         <v>417.7126065281028</v>
       </c>
       <c r="N4" t="n">
-        <v>26.57325859521377</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O4" t="n">
         <v>381.5174992961649</v>
@@ -8155,7 +8157,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q4" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8219,25 +8221,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L5" t="n">
-        <v>499.7119481929572</v>
+        <v>458.1670431142371</v>
       </c>
       <c r="M5" t="n">
         <v>37.43126289943181</v>
       </c>
       <c r="N5" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O5" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P5" t="n">
-        <v>114.0667271187383</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q5" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R5" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8301,22 +8303,22 @@
         <v>483.9149924745637</v>
       </c>
       <c r="M6" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N6" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O6" t="n">
-        <v>23.17188972222222</v>
+        <v>183.9656051068836</v>
       </c>
       <c r="P6" t="n">
-        <v>99.71676862514317</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q6" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R6" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8371,16 +8373,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K7" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L7" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M7" t="n">
-        <v>170.5153675464292</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N7" t="n">
         <v>402.0534574160406</v>
@@ -8456,25 +8458,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L8" t="n">
-        <v>499.7119481929572</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M8" t="n">
-        <v>498.831168659766</v>
+        <v>457.2862635810459</v>
       </c>
       <c r="N8" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O8" t="n">
-        <v>113.8823246645311</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P8" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q8" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R8" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J9" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K9" t="n">
         <v>22.39923383333334</v>
@@ -8538,22 +8540,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M9" t="n">
-        <v>465.8542658379011</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N9" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O9" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P9" t="n">
-        <v>483.1707469651629</v>
+        <v>99.7167686251434</v>
       </c>
       <c r="Q9" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R9" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8608,13 +8610,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K10" t="n">
         <v>249.7804132464869</v>
       </c>
       <c r="L10" t="n">
-        <v>132.9935626255638</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M10" t="n">
         <v>417.7126065281028</v>
@@ -8626,7 +8628,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P10" t="n">
-        <v>315.9153581548562</v>
+        <v>126.7901678844535</v>
       </c>
       <c r="Q10" t="n">
         <v>24.61956276478495</v>
@@ -8693,13 +8695,13 @@
         <v>497.1645065551435</v>
       </c>
       <c r="L11" t="n">
-        <v>481.069527758196</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M11" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N11" t="n">
-        <v>498.6795285947802</v>
+        <v>480.0371081600191</v>
       </c>
       <c r="O11" t="n">
         <v>37.3909593560241</v>
@@ -8766,28 +8768,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J12" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K12" t="n">
-        <v>22.39923383333334</v>
+        <v>465.1567191589066</v>
       </c>
       <c r="L12" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M12" t="n">
-        <v>191.4123574746775</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N12" t="n">
-        <v>482.7429339738759</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O12" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P12" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q12" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R12" t="n">
         <v>23.67291939414415</v>
@@ -8848,13 +8850,13 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K13" t="n">
-        <v>225.9068206338004</v>
+        <v>249.7804132464869</v>
       </c>
       <c r="L13" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M13" t="n">
-        <v>417.7126065281028</v>
+        <v>228.5874162576999</v>
       </c>
       <c r="N13" t="n">
         <v>402.0534574160406</v>
@@ -8863,10 +8865,10 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P13" t="n">
-        <v>22.38080065798648</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q13" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -8930,7 +8932,7 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L14" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M14" t="n">
         <v>37.43126289943181</v>
@@ -8939,10 +8941,10 @@
         <v>37.27962283444602</v>
       </c>
       <c r="O14" t="n">
-        <v>457.2459600376383</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P14" t="n">
-        <v>498.9752675705655</v>
+        <v>457.4303624918454</v>
       </c>
       <c r="Q14" t="n">
         <v>496.8170781441769</v>
@@ -9006,7 +9008,7 @@
         <v>20.61111433333334</v>
       </c>
       <c r="K15" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L15" t="n">
         <v>483.9149924745637</v>
@@ -9015,19 +9017,19 @@
         <v>23.09678051232798</v>
       </c>
       <c r="N15" t="n">
-        <v>21.34302821354166</v>
+        <v>456.5786519614262</v>
       </c>
       <c r="O15" t="n">
-        <v>375.55972550576</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P15" t="n">
-        <v>483.1707469651629</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q15" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R15" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9085,10 +9087,10 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K16" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L16" t="n">
-        <v>291.5984102914562</v>
+        <v>380.1908016072373</v>
       </c>
       <c r="M16" t="n">
         <v>417.7126065281028</v>
@@ -9103,7 +9105,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q16" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -9161,22 +9163,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>29.41995948558652</v>
+        <v>395.6860795026527</v>
       </c>
       <c r="K17" t="n">
         <v>35.76460079480934</v>
       </c>
       <c r="L17" t="n">
-        <v>499.7119481929572</v>
+        <v>457.4595408934816</v>
       </c>
       <c r="M17" t="n">
         <v>498.831168659766</v>
       </c>
       <c r="N17" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O17" t="n">
-        <v>480.1484446815972</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P17" t="n">
         <v>37.5753618102313</v>
@@ -9185,7 +9187,7 @@
         <v>36.12467460459804</v>
       </c>
       <c r="R17" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,28 +9239,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J18" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K18" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L18" t="n">
-        <v>457.7507104621139</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M18" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N18" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>484.5717954825564</v>
+        <v>465.9293750477955</v>
       </c>
       <c r="P18" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q18" t="n">
         <v>22.7470382889785</v>
@@ -9322,7 +9324,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K19" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L19" t="n">
         <v>380.1908016072373</v>
@@ -9404,25 +9406,25 @@
         <v>35.76460079480934</v>
       </c>
       <c r="L20" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M20" t="n">
-        <v>593.6590760150259</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N20" t="n">
-        <v>593.5074359500402</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O20" t="n">
-        <v>204.8788014195786</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P20" t="n">
-        <v>37.5753618102313</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q20" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R20" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9477,28 +9479,28 @@
         <v>16.17238675</v>
       </c>
       <c r="J21" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K21" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L21" t="n">
-        <v>22.51508671422956</v>
+        <v>190.8306636765795</v>
       </c>
       <c r="M21" t="n">
-        <v>579.3245936279221</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N21" t="n">
-        <v>577.5708413291358</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>579.3997028378163</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P21" t="n">
-        <v>180.0446044646217</v>
+        <v>21.77084120482866</v>
       </c>
       <c r="Q21" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R21" t="n">
         <v>23.67291939414415</v>
@@ -9556,10 +9558,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K22" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L22" t="n">
         <v>380.1908016072373</v>
@@ -9577,7 +9579,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q22" t="n">
-        <v>152.9025226039384</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9638,28 +9640,28 @@
         <v>29.41995948558652</v>
       </c>
       <c r="K23" t="n">
-        <v>569.51856287543</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L23" t="n">
-        <v>594.539855548217</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M23" t="n">
-        <v>593.6590760150259</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N23" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O23" t="n">
-        <v>593.6187724716183</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P23" t="n">
-        <v>37.5753618102313</v>
+        <v>361.589074527822</v>
       </c>
       <c r="Q23" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R23" t="n">
-        <v>35.03264989479647</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,28 +9713,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J24" t="n">
         <v>20.61111433333334</v>
       </c>
       <c r="K24" t="n">
-        <v>578.6270469489275</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L24" t="n">
-        <v>578.7428998298237</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M24" t="n">
-        <v>181.370543772121</v>
+        <v>458.3324042602125</v>
       </c>
       <c r="N24" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O24" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P24" t="n">
-        <v>577.9986543204228</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q24" t="n">
         <v>22.7470382889785</v>
@@ -9793,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>78.70880469517259</v>
+        <v>60.32732450727401</v>
       </c>
       <c r="K25" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L25" t="n">
         <v>380.1908016072373</v>
@@ -9814,7 +9816,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q25" t="n">
-        <v>152.9025226039384</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -9875,7 +9877,7 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K26" t="n">
-        <v>454.9120992556681</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L26" t="n">
         <v>38.31204243262292</v>
@@ -9884,19 +9886,19 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N26" t="n">
-        <v>37.27962283444602</v>
+        <v>113.7709881429531</v>
       </c>
       <c r="O26" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P26" t="n">
-        <v>498.9752675705655</v>
+        <v>498.9752675705654</v>
       </c>
       <c r="Q26" t="n">
         <v>36.12467460459804</v>
       </c>
       <c r="R26" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,22 +9950,22 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J27" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K27" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L27" t="n">
-        <v>483.9149924745637</v>
+        <v>22.51508671422956</v>
       </c>
       <c r="M27" t="n">
-        <v>465.8542658379009</v>
+        <v>101.0427079326426</v>
       </c>
       <c r="N27" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O27" t="n">
         <v>484.5717954825564</v>
@@ -9972,10 +9974,10 @@
         <v>21.77084120482866</v>
       </c>
       <c r="Q27" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R27" t="n">
-        <v>23.67291939414415</v>
+        <v>106.5207073584907</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10033,7 +10035,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K28" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L28" t="n">
         <v>380.1908016072373</v>
@@ -10112,19 +10114,19 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K29" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L29" t="n">
-        <v>458.1670431142372</v>
+        <v>38.31204243262292</v>
       </c>
       <c r="M29" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N29" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O29" t="n">
-        <v>37.3909593560241</v>
+        <v>114.5898268852863</v>
       </c>
       <c r="P29" t="n">
         <v>37.5753618102313</v>
@@ -10133,7 +10135,7 @@
         <v>496.8170781441769</v>
       </c>
       <c r="R29" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,34 +10187,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J30" t="n">
         <v>295.0530226965566</v>
       </c>
       <c r="K30" t="n">
-        <v>483.7991395936675</v>
+        <v>183.1929492179946</v>
       </c>
       <c r="L30" t="n">
-        <v>22.51508671422956</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M30" t="n">
-        <v>108.5645695103309</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N30" t="n">
-        <v>21.34302821354166</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O30" t="n">
-        <v>484.5717954825564</v>
+        <v>23.17188972222222</v>
       </c>
       <c r="P30" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q30" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R30" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10270,7 +10272,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K31" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L31" t="n">
         <v>380.1908016072373</v>
@@ -10285,7 +10287,7 @@
         <v>381.5174992961649</v>
       </c>
       <c r="P31" t="n">
-        <v>126.7901678844537</v>
+        <v>315.9153581548562</v>
       </c>
       <c r="Q31" t="n">
         <v>24.61956276478495</v>
@@ -10346,7 +10348,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>395.6860795026527</v>
+        <v>354.1411744239326</v>
       </c>
       <c r="K32" t="n">
         <v>35.76460079480934</v>
@@ -10355,19 +10357,19 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M32" t="n">
-        <v>456.5787613602906</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N32" t="n">
         <v>498.6795285947802</v>
       </c>
       <c r="O32" t="n">
-        <v>498.7908651163583</v>
+        <v>498.7908651163582</v>
       </c>
       <c r="P32" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q32" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R32" t="n">
         <v>153.7764225027789</v>
@@ -10422,19 +10424,19 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>23.69424832768873</v>
+        <v>16.17238675</v>
       </c>
       <c r="J33" t="n">
-        <v>295.0530226965566</v>
+        <v>20.61111433333334</v>
       </c>
       <c r="K33" t="n">
-        <v>483.7991395936675</v>
+        <v>22.39923383333334</v>
       </c>
       <c r="L33" t="n">
-        <v>100.4610141345438</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M33" t="n">
-        <v>484.4966862726622</v>
+        <v>465.8542658379013</v>
       </c>
       <c r="N33" t="n">
         <v>21.34302821354166</v>
@@ -10443,13 +10445,13 @@
         <v>484.5717954825564</v>
       </c>
       <c r="P33" t="n">
-        <v>21.77084120482866</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q33" t="n">
         <v>22.7470382889785</v>
       </c>
       <c r="R33" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -10507,10 +10509,10 @@
         <v>78.70880469517259</v>
       </c>
       <c r="K34" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L34" t="n">
-        <v>132.9935626255638</v>
+        <v>361.8093214193388</v>
       </c>
       <c r="M34" t="n">
         <v>417.7126065281028</v>
@@ -10583,13 +10585,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K35" t="n">
-        <v>112.2559661033163</v>
+        <v>35.76460079480934</v>
       </c>
       <c r="L35" t="n">
-        <v>38.31204243262292</v>
+        <v>481.7770299789514</v>
       </c>
       <c r="M35" t="n">
         <v>498.831168659766</v>
@@ -10598,13 +10600,13 @@
         <v>498.6795285947802</v>
       </c>
       <c r="O35" t="n">
-        <v>498.7908651163583</v>
+        <v>37.3909593560241</v>
       </c>
       <c r="P35" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q35" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R35" t="n">
         <v>35.03264989479647</v>
@@ -10659,7 +10661,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J36" t="n">
         <v>295.0530226965566</v>
@@ -10668,22 +10670,22 @@
         <v>483.7991395936675</v>
       </c>
       <c r="L36" t="n">
-        <v>190.8306636765791</v>
+        <v>483.9149924745637</v>
       </c>
       <c r="M36" t="n">
         <v>23.09678051232798</v>
       </c>
       <c r="N36" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>23.17188972222222</v>
+        <v>484.5717954825564</v>
       </c>
       <c r="P36" t="n">
         <v>21.77084120482866</v>
       </c>
       <c r="Q36" t="n">
-        <v>484.1469440493127</v>
+        <v>183.5407536736399</v>
       </c>
       <c r="R36" t="n">
         <v>23.67291939414415</v>
@@ -10744,7 +10746,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K37" t="n">
-        <v>60.65522297608413</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L37" t="n">
         <v>380.1908016072373</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>395.6860795026527</v>
+        <v>29.41995948558652</v>
       </c>
       <c r="K38" t="n">
         <v>497.1645065551435</v>
@@ -10829,22 +10831,22 @@
         <v>38.31204243262292</v>
       </c>
       <c r="M38" t="n">
-        <v>498.831168659766</v>
+        <v>37.43126289943181</v>
       </c>
       <c r="N38" t="n">
-        <v>37.27962283444602</v>
+        <v>498.6795285947802</v>
       </c>
       <c r="O38" t="n">
-        <v>37.3909593560241</v>
+        <v>362.1121742943703</v>
       </c>
       <c r="P38" t="n">
-        <v>498.9752675705655</v>
+        <v>37.5753618102313</v>
       </c>
       <c r="Q38" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R38" t="n">
-        <v>111.5240152033034</v>
+        <v>153.7764225027789</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10908,22 +10910,22 @@
         <v>22.51508671422956</v>
       </c>
       <c r="M39" t="n">
-        <v>484.4966862726622</v>
+        <v>484.4966862726621</v>
       </c>
       <c r="N39" t="n">
-        <v>99.28895563385618</v>
+        <v>482.7429339738758</v>
       </c>
       <c r="O39" t="n">
         <v>484.5717954825564</v>
       </c>
       <c r="P39" t="n">
-        <v>21.77084120482866</v>
+        <v>182.5645565894901</v>
       </c>
       <c r="Q39" t="n">
-        <v>484.1469440493127</v>
+        <v>22.7470382889785</v>
       </c>
       <c r="R39" t="n">
-        <v>106.5207073584907</v>
+        <v>23.67291939414415</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -10978,16 +10980,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K40" t="n">
-        <v>249.7804132464869</v>
+        <v>20.964654452712</v>
       </c>
       <c r="L40" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M40" t="n">
-        <v>42.2324077072759</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N40" t="n">
         <v>402.0534574160406</v>
@@ -10999,7 +11001,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q40" t="n">
-        <v>152.9025226039384</v>
+        <v>64.31013128815719</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11069,16 +11071,16 @@
         <v>37.43126289943181</v>
       </c>
       <c r="N41" t="n">
-        <v>498.6795285947802</v>
+        <v>37.27962283444602</v>
       </c>
       <c r="O41" t="n">
-        <v>456.538457816883</v>
+        <v>457.2459600376382</v>
       </c>
       <c r="P41" t="n">
         <v>37.5753618102313</v>
       </c>
       <c r="Q41" t="n">
-        <v>36.12467460459804</v>
+        <v>496.8170781441769</v>
       </c>
       <c r="R41" t="n">
         <v>153.7764225027789</v>
@@ -11139,22 +11141,22 @@
         <v>295.0530226965566</v>
       </c>
       <c r="K42" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L42" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M42" t="n">
-        <v>484.4966862726622</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N42" t="n">
-        <v>482.7429339738759</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>23.17188972222222</v>
+        <v>191.4874666845721</v>
       </c>
       <c r="P42" t="n">
-        <v>190.0864181671784</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q42" t="n">
         <v>484.1469440493127</v>
@@ -11218,7 +11220,7 @@
         <v>20.63675598390187</v>
       </c>
       <c r="K43" t="n">
-        <v>20.964654452712</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L43" t="n">
         <v>380.1908016072373</v>
@@ -11236,7 +11238,7 @@
         <v>315.9153581548562</v>
       </c>
       <c r="Q43" t="n">
-        <v>64.31013128815742</v>
+        <v>24.61956276478495</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11297,16 +11299,16 @@
         <v>395.6860795026527</v>
       </c>
       <c r="K44" t="n">
-        <v>35.76460079480934</v>
+        <v>497.1645065551435</v>
       </c>
       <c r="L44" t="n">
-        <v>38.31204243262292</v>
+        <v>499.7119481929571</v>
       </c>
       <c r="M44" t="n">
-        <v>404.0032613045061</v>
+        <v>498.831168659766</v>
       </c>
       <c r="N44" t="n">
-        <v>270.6027371849975</v>
+        <v>113.770988142953</v>
       </c>
       <c r="O44" t="n">
         <v>37.3909593560241</v>
@@ -11315,10 +11317,10 @@
         <v>37.5753618102313</v>
       </c>
       <c r="Q44" t="n">
-        <v>402.6966730096723</v>
+        <v>36.12467460459804</v>
       </c>
       <c r="R44" t="n">
-        <v>153.7764225027789</v>
+        <v>35.03264989479647</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11370,31 +11372,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>16.17238675</v>
+        <v>23.69424832768873</v>
       </c>
       <c r="J45" t="n">
-        <v>20.61111433333334</v>
+        <v>295.0530226965566</v>
       </c>
       <c r="K45" t="n">
-        <v>22.39923383333334</v>
+        <v>483.7991395936675</v>
       </c>
       <c r="L45" t="n">
         <v>22.51508671422956</v>
       </c>
       <c r="M45" t="n">
-        <v>292.0100011185071</v>
+        <v>23.09678051232798</v>
       </c>
       <c r="N45" t="n">
-        <v>387.915026618616</v>
+        <v>21.34302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>389.7438881272965</v>
+        <v>101.1178171425368</v>
       </c>
       <c r="P45" t="n">
-        <v>388.342839609903</v>
+        <v>483.1707469651628</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.7470382889785</v>
+        <v>484.1469440493127</v>
       </c>
       <c r="R45" t="n">
         <v>106.5207073584907</v>
@@ -11452,19 +11454,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>78.70880469517259</v>
+        <v>20.63675598390187</v>
       </c>
       <c r="K46" t="n">
-        <v>249.7804132464869</v>
+        <v>60.65522297608414</v>
       </c>
       <c r="L46" t="n">
         <v>380.1908016072373</v>
       </c>
       <c r="M46" t="n">
-        <v>22.57543989148582</v>
+        <v>417.7126065281028</v>
       </c>
       <c r="N46" t="n">
-        <v>174.5131862501573</v>
+        <v>402.0534574160406</v>
       </c>
       <c r="O46" t="n">
         <v>381.5174992961649</v>
@@ -22544,7 +22546,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>422.6317226868329</v>
@@ -22553,13 +22555,13 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F2" t="n">
         <v>420.8729399924937</v>
       </c>
       <c r="G2" t="n">
-        <v>43.83973675849018</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H2" t="n">
         <v>294.8896947407055</v>
@@ -22598,7 +22600,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>45.0795740109686</v>
       </c>
       <c r="U2" t="n">
         <v>255.7713603095518</v>
@@ -22610,7 +22612,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -22702,28 +22704,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>34.99604905993638</v>
       </c>
       <c r="H4" t="n">
-        <v>103.1031511450848</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U4" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>272.1038797892121</v>
@@ -22781,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>164.7273811386006</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -22796,10 +22798,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>3.860635241325156</v>
       </c>
       <c r="I5" t="n">
         <v>34.5479025439635</v>
@@ -22838,7 +22840,7 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U5" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>353.914520725013</v>
@@ -22850,7 +22852,7 @@
         <v>407.6027988439302</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="6">
@@ -22960,7 +22962,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22993,19 +22995,19 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T7" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>277.3826040146988</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W7" t="n">
         <v>272.1038797892121</v>
       </c>
       <c r="X7" t="n">
-        <v>213.1248169830942</v>
+        <v>76.36553598427545</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>415.6498806486147</v>
+        <v>201.6256048323427</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E8" t="n">
-        <v>272.8380685191854</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F8" t="n">
         <v>420.8729399924937</v>
@@ -23078,7 +23080,7 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V8" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23176,28 +23178,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1.053992300994253</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C10" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -23227,7 +23229,7 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T10" t="n">
         <v>240.905954296359</v>
@@ -23236,16 +23238,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>23.34875925479659</v>
       </c>
     </row>
     <row r="11">
@@ -23255,22 +23257,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C11" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G11" t="n">
-        <v>275.5377074504006</v>
+        <v>400.2956717864458</v>
       </c>
       <c r="H11" t="n">
         <v>294.8896947407055</v>
@@ -23306,22 +23308,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>103.323621185591</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>363.787020924684</v>
       </c>
       <c r="Y11" t="n">
         <v>401.2838973446586</v>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,16 +23469,16 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T13" t="n">
-        <v>101.4207812742428</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,19 +23494,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C14" t="n">
-        <v>277.4404852418253</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>421.717170453621</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G14" t="n">
         <v>400.2956717864458</v>
@@ -23546,7 +23548,7 @@
         <v>103.323621185591</v>
       </c>
       <c r="T14" t="n">
-        <v>218.7163152458132</v>
+        <v>78.69367445337986</v>
       </c>
       <c r="U14" t="n">
         <v>255.7713603095518</v>
@@ -23650,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E16" t="n">
-        <v>16.87489651817634</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S16" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23715,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>272.1038797892121</v>
+        <v>269.8544782802996</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>121.2529535058609</v>
       </c>
       <c r="C17" t="n">
         <v>422.6317226868329</v>
@@ -23738,7 +23740,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F17" t="n">
         <v>420.8729399924937</v>
@@ -23747,7 +23749,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H17" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>34.5479025439635</v>
@@ -23792,7 +23794,7 @@
         <v>353.914520725013</v>
       </c>
       <c r="W17" t="n">
-        <v>248.0804292187763</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23893,19 +23895,19 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>22.19843212238081</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>98.77088257712678</v>
@@ -23941,22 +23943,22 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T19" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>240.1382575886529</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>115.121631113674</v>
       </c>
     </row>
     <row r="20">
@@ -23969,22 +23971,22 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>419.0596946068497</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G20" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>236.21220599012</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I20" t="n">
         <v>34.5479025439635</v>
@@ -24023,19 +24025,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U20" t="n">
-        <v>255.7713603095518</v>
+        <v>74.82749201722294</v>
       </c>
       <c r="V20" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W20" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>407.6027988439302</v>
       </c>
       <c r="Y20" t="n">
-        <v>401.2838973446586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24124,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.9810853457154</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,19 +24174,19 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>46.56822717969858</v>
       </c>
       <c r="S22" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>132.5908555948597</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W22" t="n">
         <v>272.1038797892121</v>
@@ -24203,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -24254,10 +24256,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>31.37599128644179</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>218.7163152458132</v>
+        <v>202.4505687479333</v>
       </c>
       <c r="U23" t="n">
         <v>255.7713603095518</v>
@@ -24361,28 +24363,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24412,19 +24414,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S25" t="n">
-        <v>168.4336970060565</v>
+        <v>81.59016925535455</v>
       </c>
       <c r="T25" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>117.2205539080145</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,16 +24442,16 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>422.6317226868329</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
         <v>420.8729399924937</v>
@@ -24458,7 +24460,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I26" t="n">
         <v>34.5479025439635</v>
@@ -24491,25 +24493,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T26" t="n">
         <v>218.7163152458132</v>
       </c>
       <c r="U26" t="n">
-        <v>64.69805435238888</v>
+        <v>255.7713603095518</v>
       </c>
       <c r="V26" t="n">
         <v>353.914520725013</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>289.7416114658722</v>
       </c>
     </row>
     <row r="27">
@@ -24604,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>82.41590324375561</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -24616,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I28" t="n">
         <v>98.77088257712678</v>
@@ -24655,13 +24657,13 @@
         <v>240.905954296359</v>
       </c>
       <c r="U28" t="n">
-        <v>112.8421857026148</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V28" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>272.1038797892121</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,25 +24679,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>415.6498806486147</v>
+        <v>309.3306541137075</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I29" t="n">
         <v>34.5479025439635</v>
@@ -24740,13 +24742,13 @@
         <v>353.914520725013</v>
       </c>
       <c r="W29" t="n">
-        <v>128.2347955440788</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>401.2838973446586</v>
       </c>
     </row>
     <row r="30">
@@ -24835,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>22.98647842562201</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24883,28 +24885,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>46.56822717969858</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>12.76431364530066</v>
       </c>
       <c r="X31" t="n">
         <v>240.1382575886529</v>
       </c>
       <c r="Y31" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24914,22 +24916,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>293.9764452515384</v>
       </c>
       <c r="D32" t="n">
-        <v>419.0596946068497</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>400.2956717864458</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>294.8896947407055</v>
@@ -24974,13 +24976,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V32" t="n">
-        <v>201.6256048323426</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y32" t="n">
         <v>401.2838973446586</v>
@@ -25075,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>170.2528374898731</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>161.683605144497</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>164.546123788675</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>170.1431564831852</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>164.5944000087102</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>142.3583058069271</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>98.77088257712678</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25123,19 +25125,19 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S34" t="n">
-        <v>99.60164079042598</v>
+        <v>168.4336970060565</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>277.3826040146988</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>278.8943527180514</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>206.334344054255</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,25 +25153,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>415.6498806486147</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>422.6317226868329</v>
+        <v>291.5548568515162</v>
       </c>
       <c r="D35" t="n">
         <v>419.0596946068497</v>
       </c>
       <c r="E35" t="n">
-        <v>421.717170453621</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>420.8729399924937</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>400.2956717864458</v>
       </c>
       <c r="H35" t="n">
-        <v>59.51759358225897</v>
+        <v>294.8896947407055</v>
       </c>
       <c r="I35" t="n">
         <v>34.5479025439635</v>
@@ -25211,13 +25213,13 @@
         <v>255.7713603095518</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>353.914520725013</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>407.6027988439302</v>
       </c>
       <c r="Y35" t="n">
         <v>0</v>
@@ -25312,19 +25314,19 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>82.41590324375544</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D37" t="n">
         <v>161.683605144497</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>164.5944000087102</v>
       </c>
       <c r="H37" t="n">
         <v>142.3583058069271</v>
@@ -25360,13 +25362,13 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S37" t="n">
-        <v>168.4336970060565</v>
+        <v>99.6016407904262</v>
       </c>
       <c r="T37" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -25397,7 +25399,7 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E38" t="n">
-        <v>215.7399764420333</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F38" t="n">
         <v>420.8729399924937</v>
@@ -25406,7 +25408,7 @@
         <v>400.2956717864458</v>
       </c>
       <c r="H38" t="n">
-        <v>294.8896947407055</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>34.5479025439635</v>
@@ -25439,10 +25441,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>103.323621185591</v>
+        <v>10.47791915318095</v>
       </c>
       <c r="T38" t="n">
-        <v>218.7163152458132</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>255.7713603095518</v>
@@ -25451,10 +25453,10 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
+        <v>392.4274362026566</v>
       </c>
       <c r="X38" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>401.2838973446586</v>
@@ -25567,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>98.77088257712678</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25600,7 +25602,7 @@
         <v>168.4336970060565</v>
       </c>
       <c r="T40" t="n">
-        <v>240.905954296359</v>
+        <v>76.36553598427523</v>
       </c>
       <c r="U40" t="n">
         <v>277.3826040146988</v>
@@ -25609,7 +25611,7 @@
         <v>278.8943527180514</v>
       </c>
       <c r="W40" t="n">
-        <v>206.3343440542548</v>
+        <v>272.1038797892121</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25628,7 +25630,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>422.6317226868329</v>
       </c>
       <c r="D41" t="n">
         <v>419.0596946068497</v>
@@ -25637,7 +25639,7 @@
         <v>421.717170453621</v>
       </c>
       <c r="F41" t="n">
-        <v>365.5887437861426</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>400.2956717864458</v>
@@ -25646,7 +25648,7 @@
         <v>294.8896947407055</v>
       </c>
       <c r="I41" t="n">
-        <v>34.5479025439635</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>103.323621185591</v>
       </c>
       <c r="T41" t="n">
         <v>218.7163152458132</v>
@@ -25691,10 +25693,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>407.6027988439302</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>281.7841013016126</v>
       </c>
     </row>
     <row r="42">
@@ -25783,25 +25785,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>188.264309024945</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.2528374898731</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>164.546123788675</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>170.1431564831852</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I43" t="n">
         <v>98.77088257712678</v>
@@ -25834,25 +25836,25 @@
         <v>46.56822717969858</v>
       </c>
       <c r="S43" t="n">
-        <v>168.4336970060565</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>240.905954296359</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>277.3826040146988</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>278.8943527180514</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>107.5634614771281</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>75.93173177419163</v>
       </c>
     </row>
     <row r="44">
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>49.07788224354044</v>
+        <v>415.6498806486147</v>
       </c>
       <c r="C44" t="n">
         <v>422.6317226868329</v>
@@ -25871,10 +25873,10 @@
         <v>419.0596946068497</v>
       </c>
       <c r="E44" t="n">
-        <v>55.14517204854673</v>
+        <v>421.717170453621</v>
       </c>
       <c r="F44" t="n">
-        <v>54.30094158741946</v>
+        <v>420.8729399924937</v>
       </c>
       <c r="G44" t="n">
         <v>400.2956717864458</v>
@@ -25919,19 +25921,19 @@
         <v>218.7163152458132</v>
       </c>
       <c r="U44" t="n">
-        <v>255.7713603095518</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>353.914520725013</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>392.4274362026566</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>84.72618264874075</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>401.2838973446586</v>
+        <v>20.39925915110553</v>
       </c>
     </row>
     <row r="45">
@@ -26001,10 +26003,10 @@
         <v>0</v>
       </c>
       <c r="V45" t="n">
-        <v>202.9234074721264</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>165.084735392166</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -26020,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>188.264309024945</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>170.2528374898731</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>161.683605144497</v>
       </c>
       <c r="E46" t="n">
         <v>164.546123788675</v>
       </c>
       <c r="F46" t="n">
-        <v>170.1431564831852</v>
+        <v>28.83884297725248</v>
       </c>
       <c r="G46" t="n">
         <v>164.5944000087102</v>
       </c>
       <c r="H46" t="n">
-        <v>119.1697873653897</v>
+        <v>142.3583058069271</v>
       </c>
       <c r="I46" t="n">
         <v>98.77088257712678</v>
@@ -26074,7 +26076,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>240.905954296359</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>240.1382575886529</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>224.0793406271554</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>451446.2122310713</v>
+        <v>451446.2122310712</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>451446.2122310712</v>
+        <v>451446.2122310713</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>451446.2122310713</v>
+        <v>451446.2122310712</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>508692.7355069648</v>
+        <v>451446.2122310713</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>508692.7355069649</v>
+        <v>451446.2122310713</v>
       </c>
     </row>
     <row r="10">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>451446.2122310714</v>
+        <v>451446.2122310713</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>370770.6099310671</v>
+        <v>451446.2122310713</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>97727.09030973136</v>
+        <v>97727.09030973137</v>
       </c>
       <c r="C2" t="n">
-        <v>97727.09030973136</v>
+        <v>97727.09030973139</v>
       </c>
       <c r="D2" t="n">
-        <v>97727.09030973143</v>
+        <v>97727.0903097314</v>
       </c>
       <c r="E2" t="n">
+        <v>97727.0903097314</v>
+      </c>
+      <c r="F2" t="n">
+        <v>97727.0903097314</v>
+      </c>
+      <c r="G2" t="n">
+        <v>97727.09030973141</v>
+      </c>
+      <c r="H2" t="n">
+        <v>97727.0903097314</v>
+      </c>
+      <c r="I2" t="n">
+        <v>97727.09030973141</v>
+      </c>
+      <c r="J2" t="n">
+        <v>97727.0903097314</v>
+      </c>
+      <c r="K2" t="n">
+        <v>97727.09030973141</v>
+      </c>
+      <c r="L2" t="n">
+        <v>97727.09030973139</v>
+      </c>
+      <c r="M2" t="n">
         <v>97727.09030973137</v>
       </c>
-      <c r="F2" t="n">
-        <v>97727.09030973137</v>
-      </c>
-      <c r="G2" t="n">
-        <v>97727.0903097314</v>
-      </c>
-      <c r="H2" t="n">
-        <v>110117.9244799721</v>
-      </c>
-      <c r="I2" t="n">
-        <v>110117.9244799722</v>
-      </c>
-      <c r="J2" t="n">
-        <v>97727.09030973139</v>
-      </c>
-      <c r="K2" t="n">
-        <v>97727.09030973136</v>
-      </c>
-      <c r="L2" t="n">
-        <v>97727.09030973136</v>
-      </c>
-      <c r="M2" t="n">
-        <v>97727.0903097314</v>
-      </c>
       <c r="N2" t="n">
-        <v>97727.09030973137</v>
+        <v>97727.09030973141</v>
       </c>
       <c r="O2" t="n">
         <v>97727.09030973137</v>
       </c>
       <c r="P2" t="n">
-        <v>80265.10393082071</v>
+        <v>97727.09030973143</v>
       </c>
     </row>
     <row r="3">
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>25585.42285561533</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>95911.36395069725</v>
+        <v>120722.5169427569</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26433,13 +26435,13 @@
         <v>23350.61219269669</v>
       </c>
       <c r="H4" t="n">
-        <v>26326.44296043127</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="I4" t="n">
-        <v>26326.44296043127</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="J4" t="n">
-        <v>23350.61219269668</v>
+        <v>23350.61219269669</v>
       </c>
       <c r="K4" t="n">
         <v>23350.61219269669</v>
@@ -26457,7 +26459,7 @@
         <v>23350.61219269669</v>
       </c>
       <c r="P4" t="n">
-        <v>19156.87385206687</v>
+        <v>23350.61219269669</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26478,40 @@
         <v>61680.71427022832</v>
       </c>
       <c r="E5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="F5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="G5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="H5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="I5" t="n">
-        <v>33818.65103742812</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="J5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="K5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="L5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="M5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="N5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="O5" t="n">
-        <v>28053.11427022832</v>
+        <v>28053.11427022831</v>
       </c>
       <c r="P5" t="n">
-        <v>22287.57750302851</v>
+        <v>28053.11427022831</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26524,46 @@
         <v>-141929.9567713141</v>
       </c>
       <c r="C6" t="n">
-        <v>12695.76384680635</v>
+        <v>12695.76384680638</v>
       </c>
       <c r="D6" t="n">
-        <v>12695.76384680643</v>
+        <v>12695.7638468064</v>
       </c>
       <c r="E6" t="n">
+        <v>46323.3638468064</v>
+      </c>
+      <c r="F6" t="n">
+        <v>46323.3638468064</v>
+      </c>
+      <c r="G6" t="n">
+        <v>46323.36384680642</v>
+      </c>
+      <c r="H6" t="n">
+        <v>46323.3638468064</v>
+      </c>
+      <c r="I6" t="n">
+        <v>46323.36384680642</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-74399.15309595046</v>
+      </c>
+      <c r="K6" t="n">
+        <v>46323.36384680642</v>
+      </c>
+      <c r="L6" t="n">
+        <v>46323.36384680639</v>
+      </c>
+      <c r="M6" t="n">
         <v>46323.36384680637</v>
       </c>
-      <c r="F6" t="n">
-        <v>46323.36384680637</v>
-      </c>
-      <c r="G6" t="n">
-        <v>46323.36384680639</v>
-      </c>
-      <c r="H6" t="n">
-        <v>24387.40762649744</v>
-      </c>
-      <c r="I6" t="n">
-        <v>49972.83048211278</v>
-      </c>
-      <c r="J6" t="n">
-        <v>-49588.00010389087</v>
-      </c>
-      <c r="K6" t="n">
-        <v>46323.36384680635</v>
-      </c>
-      <c r="L6" t="n">
-        <v>46323.36384680635</v>
-      </c>
-      <c r="M6" t="n">
-        <v>46323.36384680639</v>
-      </c>
       <c r="N6" t="n">
-        <v>46323.36384680637</v>
+        <v>46323.36384680642</v>
       </c>
       <c r="O6" t="n">
         <v>46323.36384680637</v>
       </c>
       <c r="P6" t="n">
-        <v>38820.65257572533</v>
+        <v>46323.36384680643</v>
       </c>
     </row>
   </sheetData>
@@ -26787,49 +26789,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="D4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="E4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="F4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="G4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="H4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="I4" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>94.82790735525992</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34699,16 +34701,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K2" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L2" t="n">
-        <v>461.3999057603342</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N2" t="n">
-        <v>419.1474984608589</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -34720,7 +34722,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34772,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>359.9096973612264</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P3" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="Q3" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R3" t="n">
         <v>82.84778796434657</v>
@@ -34854,10 +34856,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>58.07204871127072</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="K4" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>358.2720417115361</v>
@@ -34866,7 +34868,7 @@
         <v>395.137166636617</v>
       </c>
       <c r="N4" t="n">
-        <v>5.82435761961338</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O4" t="n">
         <v>359.0183117977405</v>
@@ -34875,7 +34877,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q4" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34939,25 +34941,25 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P5" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35018,25 +35020,25 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M6" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O6" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="P6" t="n">
-        <v>77.9459274203145</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35091,16 +35093,16 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L7" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M7" t="n">
-        <v>147.9399276549434</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N7" t="n">
         <v>381.3045564404402</v>
@@ -35176,25 +35178,25 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="N8" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>76.49136530850697</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35258,22 +35260,22 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N9" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P9" t="n">
-        <v>461.3999057603342</v>
+        <v>77.94592742031473</v>
       </c>
       <c r="Q9" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,13 +35330,13 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>228.8157587937749</v>
       </c>
       <c r="L10" t="n">
-        <v>111.0748027298626</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M10" t="n">
         <v>395.137166636617</v>
@@ -35346,7 +35348,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P10" t="n">
-        <v>293.5345574968697</v>
+        <v>104.409367226467</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35410,16 +35412,16 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L11" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="M11" t="n">
+        <v>461.3999057603341</v>
+      </c>
+      <c r="N11" t="n">
         <v>442.7574853255731</v>
-      </c>
-      <c r="M11" t="n">
-        <v>461.3999057603342</v>
-      </c>
-      <c r="N11" t="n">
-        <v>461.3999057603342</v>
       </c>
       <c r="O11" t="n">
         <v>0</v>
@@ -35486,28 +35488,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>168.3155769623496</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O12" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q12" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35568,13 +35570,13 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>204.9421661810884</v>
+        <v>228.8157587937749</v>
       </c>
       <c r="L13" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M13" t="n">
-        <v>395.137166636617</v>
+        <v>206.0119763662141</v>
       </c>
       <c r="N13" t="n">
         <v>381.3045564404402</v>
@@ -35583,10 +35585,10 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q13" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35659,10 +35661,10 @@
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>461.3999057603342</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="Q14" t="n">
         <v>460.6924035395789</v>
@@ -35726,28 +35728,28 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="O15" t="n">
-        <v>352.3878357835378</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P15" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35805,10 +35807,10 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L16" t="n">
-        <v>269.6796503957549</v>
+        <v>358.2720417115361</v>
       </c>
       <c r="M16" t="n">
         <v>395.137166636617</v>
@@ -35823,7 +35825,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q16" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,22 +35883,22 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>366.2661200170662</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>461.3999057603342</v>
+        <v>419.1474984608586</v>
       </c>
       <c r="M17" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N17" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>442.7574853255731</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -35905,7 +35907,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,28 +35959,28 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L18" t="n">
-        <v>435.2356237478844</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36124,25 +36126,25 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>167.4878420635545</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>168.3155769623499</v>
       </c>
       <c r="M21" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>158.2737632597931</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
         <v>358.2720417115361</v>
@@ -36297,7 +36299,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q22" t="n">
-        <v>128.2829598391535</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,28 +36360,28 @@
         <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>533.7539620806207</v>
+        <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O23" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>324.0137127175907</v>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>556.2278131155941</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>158.2737632597931</v>
+        <v>435.2356237478845</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P24" t="n">
-        <v>556.2278131155941</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,10 +36515,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>58.07204871127072</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="K25" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L25" t="n">
         <v>358.2720417115361</v>
@@ -36534,7 +36536,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q25" t="n">
-        <v>128.2829598391535</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36595,7 +36597,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K26" t="n">
-        <v>419.1474984608587</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -36604,19 +36606,19 @@
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>76.49136530850708</v>
       </c>
       <c r="O26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P26" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>442.7574853255729</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="N27" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>82.84778796434657</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,19 +36834,19 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L29" t="n">
-        <v>419.8550006816142</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>77.1988675292622</v>
       </c>
       <c r="P29" t="n">
         <v>0</v>
@@ -36853,7 +36855,7 @@
         <v>460.6924035395789</v>
       </c>
       <c r="R29" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J30" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K30" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846612</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M30" t="n">
-        <v>85.46778899800287</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36990,7 +36992,7 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L31" t="n">
         <v>358.2720417115361</v>
@@ -37005,7 +37007,7 @@
         <v>359.0183117977405</v>
       </c>
       <c r="P31" t="n">
-        <v>104.4093672264672</v>
+        <v>293.5345574968697</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -37066,7 +37068,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>366.2661200170662</v>
+        <v>324.7212149383461</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -37075,19 +37077,19 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>419.1474984608587</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O32" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R32" t="n">
         <v>118.7437726079824</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>7.521861577688728</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>274.4419083632233</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>77.94592742031428</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M33" t="n">
-        <v>461.3999057603342</v>
+        <v>442.7574853255733</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,10 +37229,10 @@
         <v>58.07204871127072</v>
       </c>
       <c r="K34" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>111.0748027298626</v>
+        <v>339.8905615236376</v>
       </c>
       <c r="M34" t="n">
         <v>395.137166636617</v>
@@ -37303,28 +37305,28 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>76.49136530850691</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>443.4649875463285</v>
       </c>
       <c r="M35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N35" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O35" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37379,31 +37381,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J36" t="n">
         <v>274.4419083632233</v>
       </c>
       <c r="K36" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L36" t="n">
-        <v>168.3155769623496</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>461.3999057603342</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>366.2661200170662</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>324.7212149383462</v>
       </c>
       <c r="P38" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R38" t="n">
-        <v>76.49136530850697</v>
+        <v>118.7437726079824</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37630,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N39" t="n">
-        <v>77.9459274203145</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="O39" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>160.7937153846614</v>
       </c>
       <c r="Q39" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>82.84778796434657</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,16 +37700,16 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>228.8157587937749</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M40" t="n">
-        <v>19.65696781579008</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N40" t="n">
         <v>381.3045564404402</v>
@@ -37719,7 +37721,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q40" t="n">
-        <v>128.2829598391535</v>
+        <v>39.69056852337224</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37780,7 +37782,7 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K41" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -37789,16 +37791,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>419.1474984608589</v>
+        <v>419.8550006816141</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>460.6924035395789</v>
       </c>
       <c r="R41" t="n">
         <v>118.7437726079824</v>
@@ -37859,25 +37861,25 @@
         <v>274.4419083632233</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>461.3999057603342</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>168.3155769623499</v>
       </c>
       <c r="P42" t="n">
-        <v>168.3155769623498</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q42" t="n">
-        <v>461.3999057603342</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L43" t="n">
         <v>358.2720417115361</v>
@@ -37956,7 +37958,7 @@
         <v>293.5345574968697</v>
       </c>
       <c r="Q43" t="n">
-        <v>39.69056852337247</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38017,16 +38019,16 @@
         <v>366.2661200170662</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="M44" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="N44" t="n">
-        <v>233.3231143505515</v>
+        <v>76.49136530850697</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -38035,10 +38037,10 @@
         <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>118.7437726079824</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,31 +38092,31 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>7.521861577688728</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>274.4419083632233</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>268.9132206061791</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>366.5719984050743</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>366.5719984050743</v>
+        <v>77.94592742031462</v>
       </c>
       <c r="P45" t="n">
-        <v>366.5719984050743</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>461.3999057603341</v>
       </c>
       <c r="R45" t="n">
         <v>82.84778796434657</v>
@@ -38172,19 +38174,19 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>58.07204871127072</v>
+        <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>228.8157587937749</v>
+        <v>39.69056852337214</v>
       </c>
       <c r="L46" t="n">
         <v>358.2720417115361</v>
       </c>
       <c r="M46" t="n">
-        <v>0</v>
+        <v>395.137166636617</v>
       </c>
       <c r="N46" t="n">
-        <v>153.7642852745569</v>
+        <v>381.3045564404402</v>
       </c>
       <c r="O46" t="n">
         <v>359.0183117977405</v>
